--- a/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
@@ -415,10 +415,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.005518034138853878</v>
+        <v>0.005518034138635386</v>
       </c>
       <c r="D2">
-        <v>0.02315808188528123</v>
+        <v>0.02315808188538782</v>
       </c>
       <c r="E2">
         <v>0.05149672341794442</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.795292561426692</v>
+        <v>1.795292561426677</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0.03571962437026599</v>
       </c>
       <c r="L2">
-        <v>4.925500139747513</v>
+        <v>4.925500139747427</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.003797410562583536</v>
+        <v>0.003797410562578207</v>
       </c>
       <c r="D3">
-        <v>0.01708881079619928</v>
+        <v>0.01708881079629165</v>
       </c>
       <c r="E3">
-        <v>0.04634081162167192</v>
+        <v>0.04634081162166481</v>
       </c>
       <c r="F3">
-        <v>2.01845395556289</v>
+        <v>2.018453955562904</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>7.219741100966786</v>
       </c>
       <c r="K3">
-        <v>0.03216694184115632</v>
+        <v>0.0321669418411652</v>
       </c>
       <c r="L3">
         <v>4.22169171925087</v>
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.002922250907141155</v>
+        <v>0.0029222509073632</v>
       </c>
       <c r="D4">
-        <v>0.01447114720494014</v>
+        <v>0.0144711472051462</v>
       </c>
       <c r="E4">
-        <v>0.04325499787222498</v>
+        <v>0.04325499787222142</v>
       </c>
       <c r="F4">
         <v>1.804299705206176</v>
@@ -515,10 +515,10 @@
         <v>6.504593980895038</v>
       </c>
       <c r="K4">
-        <v>0.03010039343240578</v>
+        <v>0.03010039343239157</v>
       </c>
       <c r="L4">
-        <v>3.801555832558918</v>
+        <v>3.801555832558932</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.002602723110170402</v>
+        <v>0.002602723109978555</v>
       </c>
       <c r="D5">
-        <v>0.01363696497415745</v>
+        <v>0.01363696497406153</v>
       </c>
       <c r="E5">
-        <v>0.04201470288575848</v>
+        <v>0.04201470288578868</v>
       </c>
       <c r="F5">
         <v>1.721593312945075</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.216900424025226</v>
+        <v>6.216900424025255</v>
       </c>
       <c r="K5">
-        <v>0.02928294222763306</v>
+        <v>0.02928294222764016</v>
       </c>
       <c r="L5">
-        <v>3.632758934297613</v>
+        <v>3.632758934297598</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002551690027786435</v>
+        <v>0.002551690027975617</v>
       </c>
       <c r="D6">
-        <v>0.01351130693407043</v>
+        <v>0.01351130693406688</v>
       </c>
       <c r="E6">
-        <v>0.0418097157661208</v>
+        <v>0.04180971576610659</v>
       </c>
       <c r="F6">
-        <v>1.708112124100836</v>
+        <v>1.708112124100865</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.276671178560903</v>
+        <v>1.276671178560889</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.169329623682501</v>
+        <v>6.169329623682472</v>
       </c>
       <c r="K6">
         <v>0.02914858726169633</v>
       </c>
       <c r="L6">
-        <v>3.604860269264663</v>
+        <v>3.604860269264677</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.002917801402134046</v>
+        <v>0.002917801402320563</v>
       </c>
       <c r="D7">
-        <v>0.01445901032993646</v>
+        <v>0.01445901032982633</v>
       </c>
       <c r="E7">
-        <v>0.04323820467012496</v>
+        <v>0.04323820467014272</v>
       </c>
       <c r="F7">
-        <v>1.803166901868252</v>
+        <v>1.803166901868266</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.347212875766004</v>
+        <v>1.34721287576599</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>6.500700077197934</v>
       </c>
       <c r="K7">
-        <v>0.03008927405628548</v>
+        <v>0.03008927405628015</v>
       </c>
       <c r="L7">
-        <v>3.799270337393793</v>
+        <v>3.799270337393764</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.004881447149720941</v>
+        <v>0.004881447149498896</v>
       </c>
       <c r="D8">
-        <v>0.02080429693485186</v>
+        <v>0.020804296934962</v>
       </c>
       <c r="E8">
-        <v>0.04970046542685935</v>
+        <v>0.04970046542688777</v>
       </c>
       <c r="F8">
-        <v>2.265074755491895</v>
+        <v>2.265074755491881</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>7.998299654548475</v>
       </c>
       <c r="K8">
-        <v>0.03446805985499957</v>
+        <v>0.03446805985500134</v>
       </c>
       <c r="L8">
-        <v>4.679933094406977</v>
+        <v>4.67993309440692</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01067617997490267</v>
+        <v>0.01067617997511228</v>
       </c>
       <c r="D9">
-        <v>0.04478623467316112</v>
+        <v>0.04478623467314691</v>
       </c>
       <c r="E9">
-        <v>0.06317081214751852</v>
+        <v>0.06317081214753273</v>
       </c>
       <c r="F9">
         <v>3.396413909526046</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.54620533127077</v>
+        <v>2.546205331270798</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.13921736243853</v>
+        <v>11.1392173624385</v>
       </c>
       <c r="K9">
-        <v>0.04420599510611112</v>
+        <v>0.04420599510613599</v>
       </c>
       <c r="L9">
-        <v>6.537231576803862</v>
+        <v>6.537231576803833</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01712906323568575</v>
+        <v>0.01712906323497521</v>
       </c>
       <c r="D10">
-        <v>0.07487497581951885</v>
+        <v>0.07487497581965386</v>
       </c>
       <c r="E10">
-        <v>0.0738535327978127</v>
+        <v>0.07385353279783402</v>
       </c>
       <c r="F10">
         <v>4.468022410282231</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.363330050905248</v>
+        <v>3.363330050905233</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.67802182062138</v>
+        <v>13.67802182062144</v>
       </c>
       <c r="K10">
-        <v>0.05251494570129722</v>
+        <v>0.052514945701299</v>
       </c>
       <c r="L10">
-        <v>8.048420857959712</v>
+        <v>8.048420857959684</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02091777866397138</v>
+        <v>0.02091777866396072</v>
       </c>
       <c r="D11">
-        <v>0.09327558361474075</v>
+        <v>0.09327558361472654</v>
       </c>
       <c r="E11">
-        <v>0.07898194828776184</v>
+        <v>0.07898194828775473</v>
       </c>
       <c r="F11">
         <v>5.044797429606575</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.805455959913616</v>
+        <v>3.80545595991363</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14.92066089870843</v>
+        <v>14.92066089870835</v>
       </c>
       <c r="K11">
-        <v>0.05670040351376926</v>
+        <v>0.05670040351377459</v>
       </c>
       <c r="L11">
-        <v>8.791385870475835</v>
+        <v>8.791385870475807</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02252712775917587</v>
+        <v>0.0225271277591883</v>
       </c>
       <c r="D12">
-        <v>0.1011956876649549</v>
+        <v>0.1011956876649691</v>
       </c>
       <c r="E12">
-        <v>0.08097454487810651</v>
+        <v>0.08097454487810296</v>
       </c>
       <c r="F12">
         <v>5.281029188287192</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3.986934269066197</v>
+        <v>3.98693426906614</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>15.4087530598344</v>
       </c>
       <c r="K12">
-        <v>0.05836342386550086</v>
+        <v>0.05836342386552751</v>
       </c>
       <c r="L12">
-        <v>9.083823496935423</v>
+        <v>9.083823496935395</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02217163805533318</v>
+        <v>0.02217163805560496</v>
       </c>
       <c r="D13">
-        <v>0.09944171102188193</v>
+        <v>0.09944171102181087</v>
       </c>
       <c r="E13">
-        <v>0.08054291446280004</v>
+        <v>0.08054291446280715</v>
       </c>
       <c r="F13">
-        <v>5.229254059931321</v>
+        <v>5.229254059931264</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3.947140991009988</v>
+        <v>3.94714099100996</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>15.30275064194564</v>
+        <v>15.30275064194566</v>
       </c>
       <c r="K13">
-        <v>0.05800138303811231</v>
+        <v>0.05800138303813007</v>
       </c>
       <c r="L13">
-        <v>9.02028305568038</v>
+        <v>9.020283055680352</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02104628799132513</v>
+        <v>0.02104628799152941</v>
       </c>
       <c r="D14">
-        <v>0.09390602605703435</v>
+        <v>0.09390602605690646</v>
       </c>
       <c r="E14">
-        <v>0.07914478222867061</v>
+        <v>0.07914478222869548</v>
       </c>
       <c r="F14">
         <v>5.063838075121254</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3.820075276621424</v>
+        <v>3.820075276621395</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14.960428878074</v>
+        <v>14.96042887807403</v>
       </c>
       <c r="K14">
-        <v>0.05683551312285928</v>
+        <v>0.05683551312287349</v>
       </c>
       <c r="L14">
-        <v>8.815199595502065</v>
+        <v>8.815199595502037</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02038170742090273</v>
+        <v>0.02038170742065049</v>
       </c>
       <c r="D15">
-        <v>0.0906497106539419</v>
+        <v>0.09064971065393479</v>
       </c>
       <c r="E15">
-        <v>0.07829540246659406</v>
+        <v>0.07829540246660827</v>
       </c>
       <c r="F15">
         <v>4.965024682562358</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3.744222669965382</v>
+        <v>3.744222669965367</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14.75321394225523</v>
+        <v>14.75321394225517</v>
       </c>
       <c r="K15">
         <v>0.05613227931814357</v>
       </c>
       <c r="L15">
-        <v>8.69114107252463</v>
+        <v>8.691141072524658</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01690252687266636</v>
+        <v>0.01690252687244787</v>
       </c>
       <c r="D16">
-        <v>0.07378791868983114</v>
+        <v>0.07378791868971746</v>
       </c>
       <c r="E16">
-        <v>0.07352471203254751</v>
+        <v>0.07352471203255817</v>
       </c>
       <c r="F16">
-        <v>4.432501621857881</v>
+        <v>4.432501621857909</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.336149621389922</v>
+        <v>3.336149621389993</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.59895110932018</v>
+        <v>13.59895110932027</v>
       </c>
       <c r="K16">
-        <v>0.05225109189887789</v>
+        <v>0.05225109189890631</v>
       </c>
       <c r="L16">
         <v>8.001219535374275</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01501658456212418</v>
+        <v>0.01501658456236932</v>
       </c>
       <c r="D17">
-        <v>0.064809337457163</v>
+        <v>0.06480933745704931</v>
       </c>
       <c r="E17">
-        <v>0.07067413041425397</v>
+        <v>0.0706741304142966</v>
       </c>
       <c r="F17">
-        <v>4.131583367067719</v>
+        <v>4.131583367067748</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.91620424115681</v>
+        <v>12.91620424115683</v>
       </c>
       <c r="K17">
-        <v>0.04998576884176664</v>
+        <v>0.04998576884175954</v>
       </c>
       <c r="L17">
-        <v>7.594018950764024</v>
+        <v>7.594018950764053</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01400803030129794</v>
+        <v>0.01400803030129261</v>
       </c>
       <c r="D18">
-        <v>0.06006698889932238</v>
+        <v>0.06006698889964213</v>
       </c>
       <c r="E18">
-        <v>0.06905894781040445</v>
+        <v>0.06905894781036537</v>
       </c>
       <c r="F18">
-        <v>3.966516528088931</v>
+        <v>3.966516528088988</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.53137984791405</v>
+        <v>12.531379847914</v>
       </c>
       <c r="K18">
-        <v>0.04871947637482776</v>
+        <v>0.04871947637483665</v>
       </c>
       <c r="L18">
-        <v>7.36479081024234</v>
+        <v>7.364790810242312</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01367842348681236</v>
+        <v>0.01367842348681414</v>
       </c>
       <c r="D19">
-        <v>0.0585273311138792</v>
+        <v>0.05852733111388631</v>
       </c>
       <c r="E19">
-        <v>0.06851596653669034</v>
+        <v>0.0685159665366939</v>
       </c>
       <c r="F19">
         <v>3.911886027376056</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.938483181470048</v>
+        <v>2.938483181470076</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.40231925880445</v>
+        <v>12.40231925880448</v>
       </c>
       <c r="K19">
-        <v>0.04829654608976952</v>
+        <v>0.04829654608978551</v>
       </c>
       <c r="L19">
-        <v>7.287959404379336</v>
+        <v>7.287959404379365</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01520916053581445</v>
+        <v>0.01520916053606491</v>
       </c>
       <c r="D20">
-        <v>0.06571986460454582</v>
+        <v>0.06571986460456714</v>
       </c>
       <c r="E20">
-        <v>0.0709749815972387</v>
+        <v>0.07097498159722448</v>
       </c>
       <c r="F20">
-        <v>4.162758116174984</v>
+        <v>4.162758116174956</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.129938774376939</v>
+        <v>3.129938774376924</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.98803983660375</v>
+        <v>12.98803983660372</v>
       </c>
       <c r="K20">
-        <v>0.05022300342085728</v>
+        <v>0.05022300342086083</v>
       </c>
       <c r="L20">
         <v>7.636832060386894</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02137154420316634</v>
+        <v>0.0213715442036424</v>
       </c>
       <c r="D21">
-        <v>0.09550327291399441</v>
+        <v>0.09550327291413652</v>
       </c>
       <c r="E21">
-        <v>0.07955395723803704</v>
+        <v>0.0795539572380406</v>
       </c>
       <c r="F21">
         <v>5.111889425523202</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.856975281463264</v>
+        <v>3.856975281463249</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>15.0604507511292</v>
       </c>
       <c r="K21">
-        <v>0.05717563893075273</v>
+        <v>0.0571756389307545</v>
       </c>
       <c r="L21">
-        <v>8.875104538623162</v>
+        <v>8.875104538623049</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02646427917664695</v>
+        <v>0.02646427917687433</v>
       </c>
       <c r="D22">
-        <v>0.1207660933602384</v>
+        <v>0.1207660933601389</v>
       </c>
       <c r="E22">
         <v>0.08546497405662734</v>
       </c>
       <c r="F22">
-        <v>5.840471769868515</v>
+        <v>5.840471769868373</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.417536679654219</v>
+        <v>4.417536679654091</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>16.52132363817725</v>
+        <v>16.52132363817708</v>
       </c>
       <c r="K22">
-        <v>0.06219105397432045</v>
+        <v>0.06219105397433111</v>
       </c>
       <c r="L22">
-        <v>9.751735340835609</v>
+        <v>9.751735340835523</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02362358712002433</v>
+        <v>0.02362358711955004</v>
       </c>
       <c r="D23">
-        <v>0.1066203725105694</v>
+        <v>0.1066203725106902</v>
       </c>
       <c r="E23">
         <v>0.08227705647010097</v>
       </c>
       <c r="F23">
-        <v>5.439341510637092</v>
+        <v>5.439341510637121</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.108672444428834</v>
+        <v>4.108672444428848</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>15.72958902210533</v>
       </c>
       <c r="K23">
-        <v>0.05946208170498579</v>
+        <v>0.05946208170497158</v>
       </c>
       <c r="L23">
-        <v>9.276241606807815</v>
+        <v>9.276241606807872</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01512186465985899</v>
+        <v>0.01512186465987853</v>
       </c>
       <c r="D24">
-        <v>0.06530692702742158</v>
+        <v>0.06530692702732921</v>
       </c>
       <c r="E24">
-        <v>0.07083889393041432</v>
+        <v>0.07083889393039655</v>
       </c>
       <c r="F24">
-        <v>4.148639634636652</v>
+        <v>4.14863963463651</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.1191554642391</v>
+        <v>3.119155464239014</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.95553932916849</v>
+        <v>12.9555393291684</v>
       </c>
       <c r="K24">
-        <v>0.05011563867361168</v>
+        <v>0.05011563867359747</v>
       </c>
       <c r="L24">
-        <v>7.617461275574584</v>
+        <v>7.617461275574556</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.008816269417440736</v>
+        <v>0.00881626941770719</v>
       </c>
       <c r="D25">
-        <v>0.03660841919047186</v>
+        <v>0.03660841919050029</v>
       </c>
       <c r="E25">
-        <v>0.059414936630521</v>
+        <v>0.05941493663051745</v>
       </c>
       <c r="F25">
-        <v>3.057501637233855</v>
+        <v>3.057501637233798</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.28922027915803</v>
+        <v>2.289220279157973</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>10.25852998789327</v>
       </c>
       <c r="K25">
-        <v>0.04140927944336781</v>
+        <v>0.04140927944335537</v>
       </c>
       <c r="L25">
-        <v>6.015088456323411</v>
+        <v>6.015088456323383</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
@@ -415,10 +415,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.005518034138635386</v>
+        <v>0.005518034138853878</v>
       </c>
       <c r="D2">
-        <v>0.02315808188538782</v>
+        <v>0.02315808188528123</v>
       </c>
       <c r="E2">
         <v>0.05149672341794442</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.795292561426677</v>
+        <v>1.795292561426692</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0.03571962437026599</v>
       </c>
       <c r="L2">
-        <v>4.925500139747427</v>
+        <v>4.925500139747513</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.003797410562578207</v>
+        <v>0.003797410562583536</v>
       </c>
       <c r="D3">
-        <v>0.01708881079629165</v>
+        <v>0.01708881079619928</v>
       </c>
       <c r="E3">
-        <v>0.04634081162166481</v>
+        <v>0.04634081162167192</v>
       </c>
       <c r="F3">
-        <v>2.018453955562904</v>
+        <v>2.01845395556289</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>7.219741100966786</v>
       </c>
       <c r="K3">
-        <v>0.0321669418411652</v>
+        <v>0.03216694184115632</v>
       </c>
       <c r="L3">
         <v>4.22169171925087</v>
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0029222509073632</v>
+        <v>0.002922250907141155</v>
       </c>
       <c r="D4">
-        <v>0.0144711472051462</v>
+        <v>0.01447114720494014</v>
       </c>
       <c r="E4">
-        <v>0.04325499787222142</v>
+        <v>0.04325499787222498</v>
       </c>
       <c r="F4">
         <v>1.804299705206176</v>
@@ -515,10 +515,10 @@
         <v>6.504593980895038</v>
       </c>
       <c r="K4">
-        <v>0.03010039343239157</v>
+        <v>0.03010039343240578</v>
       </c>
       <c r="L4">
-        <v>3.801555832558932</v>
+        <v>3.801555832558918</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.002602723109978555</v>
+        <v>0.002602723110170402</v>
       </c>
       <c r="D5">
-        <v>0.01363696497406153</v>
+        <v>0.01363696497415745</v>
       </c>
       <c r="E5">
-        <v>0.04201470288578868</v>
+        <v>0.04201470288575848</v>
       </c>
       <c r="F5">
         <v>1.721593312945075</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.216900424025255</v>
+        <v>6.216900424025226</v>
       </c>
       <c r="K5">
-        <v>0.02928294222764016</v>
+        <v>0.02928294222763306</v>
       </c>
       <c r="L5">
-        <v>3.632758934297598</v>
+        <v>3.632758934297613</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002551690027975617</v>
+        <v>0.002551690027786435</v>
       </c>
       <c r="D6">
-        <v>0.01351130693406688</v>
+        <v>0.01351130693407043</v>
       </c>
       <c r="E6">
-        <v>0.04180971576610659</v>
+        <v>0.0418097157661208</v>
       </c>
       <c r="F6">
-        <v>1.708112124100865</v>
+        <v>1.708112124100836</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.276671178560889</v>
+        <v>1.276671178560903</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.169329623682472</v>
+        <v>6.169329623682501</v>
       </c>
       <c r="K6">
         <v>0.02914858726169633</v>
       </c>
       <c r="L6">
-        <v>3.604860269264677</v>
+        <v>3.604860269264663</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.002917801402320563</v>
+        <v>0.002917801402134046</v>
       </c>
       <c r="D7">
-        <v>0.01445901032982633</v>
+        <v>0.01445901032993646</v>
       </c>
       <c r="E7">
-        <v>0.04323820467014272</v>
+        <v>0.04323820467012496</v>
       </c>
       <c r="F7">
-        <v>1.803166901868266</v>
+        <v>1.803166901868252</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.34721287576599</v>
+        <v>1.347212875766004</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>6.500700077197934</v>
       </c>
       <c r="K7">
-        <v>0.03008927405628015</v>
+        <v>0.03008927405628548</v>
       </c>
       <c r="L7">
-        <v>3.799270337393764</v>
+        <v>3.799270337393793</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.004881447149498896</v>
+        <v>0.004881447149720941</v>
       </c>
       <c r="D8">
-        <v>0.020804296934962</v>
+        <v>0.02080429693485186</v>
       </c>
       <c r="E8">
-        <v>0.04970046542688777</v>
+        <v>0.04970046542685935</v>
       </c>
       <c r="F8">
-        <v>2.265074755491881</v>
+        <v>2.265074755491895</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>7.998299654548475</v>
       </c>
       <c r="K8">
-        <v>0.03446805985500134</v>
+        <v>0.03446805985499957</v>
       </c>
       <c r="L8">
-        <v>4.67993309440692</v>
+        <v>4.679933094406977</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01067617997511228</v>
+        <v>0.01067617997490267</v>
       </c>
       <c r="D9">
-        <v>0.04478623467314691</v>
+        <v>0.04478623467316112</v>
       </c>
       <c r="E9">
-        <v>0.06317081214753273</v>
+        <v>0.06317081214751852</v>
       </c>
       <c r="F9">
         <v>3.396413909526046</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.546205331270798</v>
+        <v>2.54620533127077</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.1392173624385</v>
+        <v>11.13921736243853</v>
       </c>
       <c r="K9">
-        <v>0.04420599510613599</v>
+        <v>0.04420599510611112</v>
       </c>
       <c r="L9">
-        <v>6.537231576803833</v>
+        <v>6.537231576803862</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01712906323497521</v>
+        <v>0.01712906323568575</v>
       </c>
       <c r="D10">
-        <v>0.07487497581965386</v>
+        <v>0.07487497581951885</v>
       </c>
       <c r="E10">
-        <v>0.07385353279783402</v>
+        <v>0.0738535327978127</v>
       </c>
       <c r="F10">
         <v>4.468022410282231</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.363330050905233</v>
+        <v>3.363330050905248</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.67802182062144</v>
+        <v>13.67802182062138</v>
       </c>
       <c r="K10">
-        <v>0.052514945701299</v>
+        <v>0.05251494570129722</v>
       </c>
       <c r="L10">
-        <v>8.048420857959684</v>
+        <v>8.048420857959712</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02091777866396072</v>
+        <v>0.02091777866397138</v>
       </c>
       <c r="D11">
-        <v>0.09327558361472654</v>
+        <v>0.09327558361474075</v>
       </c>
       <c r="E11">
-        <v>0.07898194828775473</v>
+        <v>0.07898194828776184</v>
       </c>
       <c r="F11">
         <v>5.044797429606575</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.80545595991363</v>
+        <v>3.805455959913616</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14.92066089870835</v>
+        <v>14.92066089870843</v>
       </c>
       <c r="K11">
-        <v>0.05670040351377459</v>
+        <v>0.05670040351376926</v>
       </c>
       <c r="L11">
-        <v>8.791385870475807</v>
+        <v>8.791385870475835</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0225271277591883</v>
+        <v>0.02252712775917587</v>
       </c>
       <c r="D12">
-        <v>0.1011956876649691</v>
+        <v>0.1011956876649549</v>
       </c>
       <c r="E12">
-        <v>0.08097454487810296</v>
+        <v>0.08097454487810651</v>
       </c>
       <c r="F12">
         <v>5.281029188287192</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3.98693426906614</v>
+        <v>3.986934269066197</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>15.4087530598344</v>
       </c>
       <c r="K12">
-        <v>0.05836342386552751</v>
+        <v>0.05836342386550086</v>
       </c>
       <c r="L12">
-        <v>9.083823496935395</v>
+        <v>9.083823496935423</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02217163805560496</v>
+        <v>0.02217163805533318</v>
       </c>
       <c r="D13">
-        <v>0.09944171102181087</v>
+        <v>0.09944171102188193</v>
       </c>
       <c r="E13">
-        <v>0.08054291446280715</v>
+        <v>0.08054291446280004</v>
       </c>
       <c r="F13">
-        <v>5.229254059931264</v>
+        <v>5.229254059931321</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3.94714099100996</v>
+        <v>3.947140991009988</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>15.30275064194566</v>
+        <v>15.30275064194564</v>
       </c>
       <c r="K13">
-        <v>0.05800138303813007</v>
+        <v>0.05800138303811231</v>
       </c>
       <c r="L13">
-        <v>9.020283055680352</v>
+        <v>9.02028305568038</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02104628799152941</v>
+        <v>0.02104628799132513</v>
       </c>
       <c r="D14">
-        <v>0.09390602605690646</v>
+        <v>0.09390602605703435</v>
       </c>
       <c r="E14">
-        <v>0.07914478222869548</v>
+        <v>0.07914478222867061</v>
       </c>
       <c r="F14">
         <v>5.063838075121254</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3.820075276621395</v>
+        <v>3.820075276621424</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14.96042887807403</v>
+        <v>14.960428878074</v>
       </c>
       <c r="K14">
-        <v>0.05683551312287349</v>
+        <v>0.05683551312285928</v>
       </c>
       <c r="L14">
-        <v>8.815199595502037</v>
+        <v>8.815199595502065</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02038170742065049</v>
+        <v>0.02038170742090273</v>
       </c>
       <c r="D15">
-        <v>0.09064971065393479</v>
+        <v>0.0906497106539419</v>
       </c>
       <c r="E15">
-        <v>0.07829540246660827</v>
+        <v>0.07829540246659406</v>
       </c>
       <c r="F15">
         <v>4.965024682562358</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3.744222669965367</v>
+        <v>3.744222669965382</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14.75321394225517</v>
+        <v>14.75321394225523</v>
       </c>
       <c r="K15">
         <v>0.05613227931814357</v>
       </c>
       <c r="L15">
-        <v>8.691141072524658</v>
+        <v>8.69114107252463</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01690252687244787</v>
+        <v>0.01690252687266636</v>
       </c>
       <c r="D16">
-        <v>0.07378791868971746</v>
+        <v>0.07378791868983114</v>
       </c>
       <c r="E16">
-        <v>0.07352471203255817</v>
+        <v>0.07352471203254751</v>
       </c>
       <c r="F16">
-        <v>4.432501621857909</v>
+        <v>4.432501621857881</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.336149621389993</v>
+        <v>3.336149621389922</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.59895110932027</v>
+        <v>13.59895110932018</v>
       </c>
       <c r="K16">
-        <v>0.05225109189890631</v>
+        <v>0.05225109189887789</v>
       </c>
       <c r="L16">
         <v>8.001219535374275</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01501658456236932</v>
+        <v>0.01501658456212418</v>
       </c>
       <c r="D17">
-        <v>0.06480933745704931</v>
+        <v>0.064809337457163</v>
       </c>
       <c r="E17">
-        <v>0.0706741304142966</v>
+        <v>0.07067413041425397</v>
       </c>
       <c r="F17">
-        <v>4.131583367067748</v>
+        <v>4.131583367067719</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.91620424115683</v>
+        <v>12.91620424115681</v>
       </c>
       <c r="K17">
-        <v>0.04998576884175954</v>
+        <v>0.04998576884176664</v>
       </c>
       <c r="L17">
-        <v>7.594018950764053</v>
+        <v>7.594018950764024</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01400803030129261</v>
+        <v>0.01400803030129794</v>
       </c>
       <c r="D18">
-        <v>0.06006698889964213</v>
+        <v>0.06006698889932238</v>
       </c>
       <c r="E18">
-        <v>0.06905894781036537</v>
+        <v>0.06905894781040445</v>
       </c>
       <c r="F18">
-        <v>3.966516528088988</v>
+        <v>3.966516528088931</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.531379847914</v>
+        <v>12.53137984791405</v>
       </c>
       <c r="K18">
-        <v>0.04871947637483665</v>
+        <v>0.04871947637482776</v>
       </c>
       <c r="L18">
-        <v>7.364790810242312</v>
+        <v>7.36479081024234</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01367842348681414</v>
+        <v>0.01367842348681236</v>
       </c>
       <c r="D19">
-        <v>0.05852733111388631</v>
+        <v>0.0585273311138792</v>
       </c>
       <c r="E19">
-        <v>0.0685159665366939</v>
+        <v>0.06851596653669034</v>
       </c>
       <c r="F19">
         <v>3.911886027376056</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.938483181470076</v>
+        <v>2.938483181470048</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.40231925880448</v>
+        <v>12.40231925880445</v>
       </c>
       <c r="K19">
-        <v>0.04829654608978551</v>
+        <v>0.04829654608976952</v>
       </c>
       <c r="L19">
-        <v>7.287959404379365</v>
+        <v>7.287959404379336</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01520916053606491</v>
+        <v>0.01520916053581445</v>
       </c>
       <c r="D20">
-        <v>0.06571986460456714</v>
+        <v>0.06571986460454582</v>
       </c>
       <c r="E20">
-        <v>0.07097498159722448</v>
+        <v>0.0709749815972387</v>
       </c>
       <c r="F20">
-        <v>4.162758116174956</v>
+        <v>4.162758116174984</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.129938774376924</v>
+        <v>3.129938774376939</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.98803983660372</v>
+        <v>12.98803983660375</v>
       </c>
       <c r="K20">
-        <v>0.05022300342086083</v>
+        <v>0.05022300342085728</v>
       </c>
       <c r="L20">
         <v>7.636832060386894</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0213715442036424</v>
+        <v>0.02137154420316634</v>
       </c>
       <c r="D21">
-        <v>0.09550327291413652</v>
+        <v>0.09550327291399441</v>
       </c>
       <c r="E21">
-        <v>0.0795539572380406</v>
+        <v>0.07955395723803704</v>
       </c>
       <c r="F21">
         <v>5.111889425523202</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.856975281463249</v>
+        <v>3.856975281463264</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>15.0604507511292</v>
       </c>
       <c r="K21">
-        <v>0.0571756389307545</v>
+        <v>0.05717563893075273</v>
       </c>
       <c r="L21">
-        <v>8.875104538623049</v>
+        <v>8.875104538623162</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02646427917687433</v>
+        <v>0.02646427917664695</v>
       </c>
       <c r="D22">
-        <v>0.1207660933601389</v>
+        <v>0.1207660933602384</v>
       </c>
       <c r="E22">
         <v>0.08546497405662734</v>
       </c>
       <c r="F22">
-        <v>5.840471769868373</v>
+        <v>5.840471769868515</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.417536679654091</v>
+        <v>4.417536679654219</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>16.52132363817708</v>
+        <v>16.52132363817725</v>
       </c>
       <c r="K22">
-        <v>0.06219105397433111</v>
+        <v>0.06219105397432045</v>
       </c>
       <c r="L22">
-        <v>9.751735340835523</v>
+        <v>9.751735340835609</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02362358711955004</v>
+        <v>0.02362358712002433</v>
       </c>
       <c r="D23">
-        <v>0.1066203725106902</v>
+        <v>0.1066203725105694</v>
       </c>
       <c r="E23">
         <v>0.08227705647010097</v>
       </c>
       <c r="F23">
-        <v>5.439341510637121</v>
+        <v>5.439341510637092</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.108672444428848</v>
+        <v>4.108672444428834</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>15.72958902210533</v>
       </c>
       <c r="K23">
-        <v>0.05946208170497158</v>
+        <v>0.05946208170498579</v>
       </c>
       <c r="L23">
-        <v>9.276241606807872</v>
+        <v>9.276241606807815</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01512186465987853</v>
+        <v>0.01512186465985899</v>
       </c>
       <c r="D24">
-        <v>0.06530692702732921</v>
+        <v>0.06530692702742158</v>
       </c>
       <c r="E24">
-        <v>0.07083889393039655</v>
+        <v>0.07083889393041432</v>
       </c>
       <c r="F24">
-        <v>4.14863963463651</v>
+        <v>4.148639634636652</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.119155464239014</v>
+        <v>3.1191554642391</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.9555393291684</v>
+        <v>12.95553932916849</v>
       </c>
       <c r="K24">
-        <v>0.05011563867359747</v>
+        <v>0.05011563867361168</v>
       </c>
       <c r="L24">
-        <v>7.617461275574556</v>
+        <v>7.617461275574584</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.00881626941770719</v>
+        <v>0.008816269417440736</v>
       </c>
       <c r="D25">
-        <v>0.03660841919050029</v>
+        <v>0.03660841919047186</v>
       </c>
       <c r="E25">
-        <v>0.05941493663051745</v>
+        <v>0.059414936630521</v>
       </c>
       <c r="F25">
-        <v>3.057501637233798</v>
+        <v>3.057501637233855</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.289220279157973</v>
+        <v>2.28922027915803</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>10.25852998789327</v>
       </c>
       <c r="K25">
-        <v>0.04140927944335537</v>
+        <v>0.04140927944336781</v>
       </c>
       <c r="L25">
-        <v>6.015088456323383</v>
+        <v>6.015088456323411</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.005518034138853878</v>
+        <v>0.00441749943671077</v>
       </c>
       <c r="D2">
-        <v>0.02315808188528123</v>
+        <v>0.02174815161602339</v>
       </c>
       <c r="E2">
-        <v>0.05149672341794442</v>
+        <v>0.05061136208980344</v>
       </c>
       <c r="F2">
-        <v>2.402672289688041</v>
+        <v>2.380110720354921</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007101241307768017</v>
       </c>
       <c r="H2">
-        <v>1.795292561426692</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.778419005337184</v>
       </c>
       <c r="J2">
-        <v>8.414916728913738</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.03571962437026599</v>
+        <v>8.367530232775039</v>
       </c>
       <c r="L2">
-        <v>4.925500139747513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.03536283043462696</v>
+      </c>
+      <c r="M2">
+        <v>4.898974637148697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.003797410562583536</v>
+        <v>0.002918886906058127</v>
       </c>
       <c r="D3">
-        <v>0.01708881079619928</v>
+        <v>0.01651489704333997</v>
       </c>
       <c r="E3">
-        <v>0.04634081162167192</v>
+        <v>0.0453583254107528</v>
       </c>
       <c r="F3">
-        <v>2.01845395556289</v>
+        <v>2.0063430535739</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007275396307898661</v>
       </c>
       <c r="H3">
-        <v>1.507549055644148</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.498935852335265</v>
       </c>
       <c r="J3">
-        <v>7.219741100966786</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03216694184115632</v>
+        <v>7.180408184771466</v>
       </c>
       <c r="L3">
-        <v>4.22169171925087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.03175129112171682</v>
+      </c>
+      <c r="M3">
+        <v>4.200106016206433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.002922250907141155</v>
+        <v>0.002177043273478674</v>
       </c>
       <c r="D4">
-        <v>0.01447114720494014</v>
+        <v>0.01439654541362501</v>
       </c>
       <c r="E4">
-        <v>0.04325499787222498</v>
+        <v>0.04221114581796925</v>
       </c>
       <c r="F4">
-        <v>1.804299705206176</v>
+        <v>1.798338118147058</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007382646786204728</v>
       </c>
       <c r="H4">
-        <v>1.348054542595435</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.344302415560406</v>
       </c>
       <c r="J4">
-        <v>6.504593980895038</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.03010039343240578</v>
+        <v>6.469939975005104</v>
       </c>
       <c r="L4">
-        <v>3.801555832558918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.02964727946226731</v>
+      </c>
+      <c r="M4">
+        <v>3.782834637943168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.002602723110170402</v>
+        <v>0.001911389889263759</v>
       </c>
       <c r="D5">
-        <v>0.01363696497415745</v>
+        <v>0.01376365475039876</v>
       </c>
       <c r="E5">
-        <v>0.04201470288575848</v>
+        <v>0.040945401630891</v>
       </c>
       <c r="F5">
-        <v>1.721593312945075</v>
+        <v>1.718091326209006</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007426555278778638</v>
       </c>
       <c r="H5">
-        <v>1.286665436683151</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.284857798577235</v>
       </c>
       <c r="J5">
-        <v>6.216900424025226</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02928294222763306</v>
+        <v>6.184103862379345</v>
       </c>
       <c r="L5">
-        <v>3.632758934297613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.02881424422257695</v>
+      </c>
+      <c r="M5">
+        <v>3.61517374764955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002551690027786435</v>
+        <v>0.001869282778771186</v>
       </c>
       <c r="D6">
-        <v>0.01351130693407043</v>
+        <v>0.01367132252484282</v>
       </c>
       <c r="E6">
-        <v>0.0418097157661208</v>
+        <v>0.04073616175870498</v>
       </c>
       <c r="F6">
-        <v>1.708112124100836</v>
+        <v>1.705016275617524</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007433861705798984</v>
       </c>
       <c r="H6">
-        <v>1.276671178560903</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.275184631444603</v>
       </c>
       <c r="J6">
-        <v>6.169329623682501</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.02914858726169633</v>
+        <v>6.136838950491324</v>
       </c>
       <c r="L6">
-        <v>3.604860269264663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.02867728269465708</v>
+      </c>
+      <c r="M6">
+        <v>3.58746209883698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.002917801402134046</v>
+        <v>0.002173321823435437</v>
       </c>
       <c r="D7">
-        <v>0.01445901032993646</v>
+        <v>0.01438713052045415</v>
       </c>
       <c r="E7">
-        <v>0.04323820467012496</v>
+        <v>0.04219401119943456</v>
       </c>
       <c r="F7">
-        <v>1.803166901868252</v>
+        <v>1.797238649220049</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.000738323798287014</v>
       </c>
       <c r="H7">
-        <v>1.347212875766004</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.343487101296361</v>
       </c>
       <c r="J7">
-        <v>6.500700077197934</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.03008927405628548</v>
+        <v>6.466071300662463</v>
       </c>
       <c r="L7">
-        <v>3.799270337393793</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.02963595118413842</v>
+      </c>
+      <c r="M7">
+        <v>3.780564577442192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.004881447149720941</v>
+        <v>0.003858290173154089</v>
       </c>
       <c r="D8">
-        <v>0.02080429693485186</v>
+        <v>0.01968644984441426</v>
       </c>
       <c r="E8">
-        <v>0.04970046542685935</v>
+        <v>0.04878197107703386</v>
       </c>
       <c r="F8">
-        <v>2.265074755491895</v>
+        <v>2.246186462234022</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007161305245606717</v>
       </c>
       <c r="H8">
-        <v>1.692037963202381</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.678067704141753</v>
       </c>
       <c r="J8">
-        <v>7.998299654548475</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.03446805985499957</v>
+        <v>7.953757385136129</v>
       </c>
       <c r="L8">
-        <v>4.679933094406977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.03409125909624855</v>
+      </c>
+      <c r="M8">
+        <v>4.655153444255973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01067617997490267</v>
+        <v>0.009063736684952417</v>
       </c>
       <c r="D9">
-        <v>0.04478623467316112</v>
+        <v>0.04142082768536426</v>
       </c>
       <c r="E9">
-        <v>0.06317081214751852</v>
+        <v>0.06248523588885391</v>
       </c>
       <c r="F9">
-        <v>3.396413909526046</v>
+        <v>3.348648729874441</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006721525905934435</v>
       </c>
       <c r="H9">
-        <v>2.54620533127077</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.509412758007784</v>
       </c>
       <c r="J9">
-        <v>11.13921736243853</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.04420599510611112</v>
+        <v>11.07198813435505</v>
       </c>
       <c r="L9">
-        <v>6.537231576803862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.04396743158857852</v>
+      </c>
+      <c r="M9">
+        <v>6.498489429277896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01712906323568575</v>
+        <v>0.01501623076762826</v>
       </c>
       <c r="D10">
-        <v>0.07487497581951885</v>
+        <v>0.06955060115365086</v>
       </c>
       <c r="E10">
-        <v>0.0738535327978127</v>
+        <v>0.07333043311755105</v>
       </c>
       <c r="F10">
-        <v>4.468022410282231</v>
+        <v>4.393959908486721</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.00063820079398015</v>
       </c>
       <c r="H10">
-        <v>3.363330050905248</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.305753358998459</v>
       </c>
       <c r="J10">
-        <v>13.67802182062138</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.05251494570129722</v>
+        <v>13.58961306789428</v>
       </c>
       <c r="L10">
-        <v>8.048420857959712</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.05236706529519353</v>
+      </c>
+      <c r="M10">
+        <v>7.996574649092935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02091777866397138</v>
+        <v>0.01854526874714857</v>
       </c>
       <c r="D11">
-        <v>0.09327558361474075</v>
+        <v>0.08691299702366706</v>
       </c>
       <c r="E11">
-        <v>0.07898194828776184</v>
+        <v>0.078530407549394</v>
       </c>
       <c r="F11">
-        <v>5.044797429606575</v>
+        <v>4.956391750097168</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006219171258517023</v>
       </c>
       <c r="H11">
-        <v>3.805455959913616</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.736541650507533</v>
       </c>
       <c r="J11">
-        <v>14.92066089870843</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.05670040351376926</v>
+        <v>14.82054409052358</v>
       </c>
       <c r="L11">
-        <v>8.791385870475835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.05658948706123468</v>
+      </c>
+      <c r="M11">
+        <v>8.732270138800544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02252712775917587</v>
+        <v>0.02004898214639539</v>
       </c>
       <c r="D12">
-        <v>0.1011956876649549</v>
+        <v>0.09440624989165514</v>
       </c>
       <c r="E12">
-        <v>0.08097454487810651</v>
+        <v>0.08054965571645312</v>
       </c>
       <c r="F12">
-        <v>5.281029188287192</v>
+        <v>5.186649025752729</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006155666130207519</v>
       </c>
       <c r="H12">
-        <v>3.986934269066197</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.913297001956806</v>
       </c>
       <c r="J12">
-        <v>15.4087530598344</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.05836342386550086</v>
+        <v>15.30373211383224</v>
       </c>
       <c r="L12">
-        <v>9.083823496935423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.0582655478380989</v>
+      </c>
+      <c r="M12">
+        <v>9.021657788461994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02217163805533318</v>
+        <v>0.01971663010180258</v>
       </c>
       <c r="D13">
-        <v>0.09944171102188193</v>
+        <v>0.09274599464126965</v>
       </c>
       <c r="E13">
-        <v>0.08054291446280004</v>
+        <v>0.08011230811031922</v>
       </c>
       <c r="F13">
-        <v>5.229254059931321</v>
+        <v>5.136189446576623</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000616943844743653</v>
       </c>
       <c r="H13">
-        <v>3.947140991009988</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.87454371572683</v>
       </c>
       <c r="J13">
-        <v>15.30275064194564</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.05800138303811231</v>
+        <v>15.19881084661381</v>
       </c>
       <c r="L13">
-        <v>9.02028305568038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.05790074943344159</v>
+      </c>
+      <c r="M13">
+        <v>8.958789980743575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02104628799132513</v>
+        <v>0.01866525541019115</v>
       </c>
       <c r="D14">
-        <v>0.09390602605703435</v>
+        <v>0.08750909935069728</v>
       </c>
       <c r="E14">
-        <v>0.07914478222867061</v>
+        <v>0.07869544405858164</v>
       </c>
       <c r="F14">
-        <v>5.063838075121254</v>
+        <v>4.974953384426385</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006213988287614226</v>
       </c>
       <c r="H14">
-        <v>3.820075276621424</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.750782307805224</v>
       </c>
       <c r="J14">
-        <v>14.960428878074</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.05683551312285928</v>
+        <v>14.85991943538104</v>
       </c>
       <c r="L14">
-        <v>8.815199595502065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.05672569158573992</v>
+      </c>
+      <c r="M14">
+        <v>8.755839782872016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02038170742090273</v>
+        <v>0.01804492697198157</v>
       </c>
       <c r="D15">
-        <v>0.0906497106539419</v>
+        <v>0.08443090150076671</v>
       </c>
       <c r="E15">
-        <v>0.07829540246659406</v>
+        <v>0.07783452751490572</v>
       </c>
       <c r="F15">
-        <v>4.965024682562358</v>
+        <v>4.878621416460646</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006241012560368902</v>
       </c>
       <c r="H15">
-        <v>3.744222669965382</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.676891255752679</v>
       </c>
       <c r="J15">
-        <v>14.75321394225523</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.05613227931814357</v>
+        <v>14.65473737809546</v>
       </c>
       <c r="L15">
-        <v>8.69114107252463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.05601669082185801</v>
+      </c>
+      <c r="M15">
+        <v>8.6330447950956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01690252687266636</v>
+        <v>0.01480582508609984</v>
       </c>
       <c r="D16">
-        <v>0.07378791868983114</v>
+        <v>0.06852752792196526</v>
       </c>
       <c r="E16">
-        <v>0.07352471203254751</v>
+        <v>0.072996881256298</v>
       </c>
       <c r="F16">
-        <v>4.432501621857881</v>
+        <v>4.35931410751445</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006392432666523131</v>
       </c>
       <c r="H16">
-        <v>3.336149621389922</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.279264525954233</v>
       </c>
       <c r="J16">
-        <v>13.59895110932018</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.05225109189887789</v>
+        <v>13.51125336111767</v>
       </c>
       <c r="L16">
-        <v>8.001219535374275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.05210068565460624</v>
+      </c>
+      <c r="M16">
+        <v>7.949814226405493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01501658456212418</v>
+        <v>0.01305749054447958</v>
       </c>
       <c r="D17">
-        <v>0.064809337457163</v>
+        <v>0.06009244239205458</v>
       </c>
       <c r="E17">
-        <v>0.07067413041425397</v>
+        <v>0.07010457065660347</v>
       </c>
       <c r="F17">
-        <v>4.131583367067719</v>
+        <v>4.06578517908153</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.000648280291687966</v>
       </c>
       <c r="H17">
-        <v>3.106129698468933</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.055085018951701</v>
       </c>
       <c r="J17">
-        <v>12.91620424115681</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.04998576884176664</v>
+        <v>12.83449487312095</v>
       </c>
       <c r="L17">
-        <v>7.594018950764024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.04981272919354396</v>
+      </c>
+      <c r="M17">
+        <v>7.546324433283189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01400803030129794</v>
+        <v>0.01212528952873271</v>
       </c>
       <c r="D18">
-        <v>0.06006698889932238</v>
+        <v>0.05564989078425242</v>
       </c>
       <c r="E18">
-        <v>0.06905894781040445</v>
+        <v>0.06846517490265569</v>
       </c>
       <c r="F18">
-        <v>3.966516528088931</v>
+        <v>3.904761006656742</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006534041693892958</v>
       </c>
       <c r="H18">
-        <v>2.980146747962706</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.932297223296345</v>
       </c>
       <c r="J18">
-        <v>12.53137984791405</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.04871947637482776</v>
+        <v>12.45293392789424</v>
       </c>
       <c r="L18">
-        <v>7.36479081024234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.04853304393737723</v>
+      </c>
+      <c r="M18">
+        <v>7.319116500318785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01367842348681236</v>
+        <v>0.01182111305930711</v>
       </c>
       <c r="D19">
-        <v>0.0585273311138792</v>
+        <v>0.0542098105232327</v>
       </c>
       <c r="E19">
-        <v>0.06851596653669034</v>
+        <v>0.06791396106100933</v>
       </c>
       <c r="F19">
-        <v>3.911886027376056</v>
+        <v>3.851467972230552</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006551278411480447</v>
       </c>
       <c r="H19">
-        <v>2.938483181470048</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.891690719411869</v>
       </c>
       <c r="J19">
-        <v>12.40231925880445</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.04829654608976952</v>
+        <v>12.32495092295483</v>
       </c>
       <c r="L19">
-        <v>7.287959404379336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.04810552163344717</v>
+      </c>
+      <c r="M19">
+        <v>7.242951840645389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01520916053581445</v>
+        <v>0.01323572184759314</v>
       </c>
       <c r="D20">
-        <v>0.06571986460454582</v>
+        <v>0.06094650685349023</v>
       </c>
       <c r="E20">
-        <v>0.0709749815972387</v>
+        <v>0.07040988637923107</v>
       </c>
       <c r="F20">
-        <v>4.162758116174984</v>
+        <v>4.096195877326437</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006473263169121474</v>
       </c>
       <c r="H20">
-        <v>3.129938774376939</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.078290212785305</v>
       </c>
       <c r="J20">
-        <v>12.98803983660375</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.05022300342085728</v>
+        <v>12.90571264723263</v>
       </c>
       <c r="L20">
-        <v>7.636832060386894</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.05005241365508262</v>
+      </c>
+      <c r="M20">
+        <v>7.588754922653806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02137154420316634</v>
+        <v>0.01896901165205556</v>
       </c>
       <c r="D21">
-        <v>0.09550327291399441</v>
+        <v>0.08901964074364344</v>
       </c>
       <c r="E21">
-        <v>0.07955395723803704</v>
+        <v>0.07911013453723825</v>
       </c>
       <c r="F21">
-        <v>5.111889425523202</v>
+        <v>5.021793996977038</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006200959478133447</v>
       </c>
       <c r="H21">
-        <v>3.856975281463264</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.786725214565209</v>
       </c>
       <c r="J21">
-        <v>15.0604507511292</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.05717563893075273</v>
+        <v>14.95894845208196</v>
       </c>
       <c r="L21">
-        <v>8.875104538623162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.05706854611092282</v>
+      </c>
+      <c r="M21">
+        <v>8.815127434671865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02646427917664695</v>
+        <v>0.02373590002220638</v>
       </c>
       <c r="D22">
-        <v>0.1207660933602384</v>
+        <v>0.1129548229902113</v>
       </c>
       <c r="E22">
-        <v>0.08546497405662734</v>
+        <v>0.08509766345193626</v>
       </c>
       <c r="F22">
-        <v>5.840471769868515</v>
+        <v>5.731615175832673</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006011701812096614</v>
       </c>
       <c r="H22">
-        <v>4.417536679654219</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.332454390340288</v>
       </c>
       <c r="J22">
-        <v>16.52132363817725</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.06219105397432045</v>
+        <v>16.4043609537016</v>
       </c>
       <c r="L22">
-        <v>9.751735340835609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.06211948044304449</v>
+      </c>
+      <c r="M22">
+        <v>9.682131236415159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02362358712002433</v>
+        <v>0.02107470801682787</v>
       </c>
       <c r="D23">
-        <v>0.1066203725105694</v>
+        <v>0.09954362636175063</v>
       </c>
       <c r="E23">
-        <v>0.08227705647010097</v>
+        <v>0.08186922917013817</v>
       </c>
       <c r="F23">
-        <v>5.439341510637092</v>
+        <v>5.340915453808236</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006114044167767618</v>
       </c>
       <c r="H23">
-        <v>4.108672444428834</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.031836664336822</v>
       </c>
       <c r="J23">
-        <v>15.72958902210533</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.05946208170498579</v>
+        <v>15.62123866866011</v>
       </c>
       <c r="L23">
-        <v>9.276241606807815</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.0593722930390328</v>
+      </c>
+      <c r="M23">
+        <v>9.212003665017249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01512186465985899</v>
+        <v>0.01315491961665671</v>
       </c>
       <c r="D24">
-        <v>0.06530692702742158</v>
+        <v>0.06055913469459995</v>
       </c>
       <c r="E24">
-        <v>0.07083889393041432</v>
+        <v>0.07027178098088527</v>
       </c>
       <c r="F24">
-        <v>4.148639634636652</v>
+        <v>4.082423450447948</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006477578277768235</v>
       </c>
       <c r="H24">
-        <v>3.1191554642391</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.06778041384166</v>
       </c>
       <c r="J24">
-        <v>12.95553932916849</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.05011563867361168</v>
+        <v>12.87349200430933</v>
       </c>
       <c r="L24">
-        <v>7.617461275574584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.04994394247988332</v>
+      </c>
+      <c r="M24">
+        <v>7.569557465925783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.008816269417440736</v>
+        <v>0.007371095541968131</v>
       </c>
       <c r="D25">
-        <v>0.03660841919047186</v>
+        <v>0.03388681767392399</v>
       </c>
       <c r="E25">
-        <v>0.059414936630521</v>
+        <v>0.05866780038753205</v>
       </c>
       <c r="F25">
-        <v>3.057501637233855</v>
+        <v>3.018151460600336</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006842149850324744</v>
       </c>
       <c r="H25">
-        <v>2.28922027915803</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.259078157855271</v>
       </c>
       <c r="J25">
-        <v>10.25852998789327</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.04140927944336781</v>
+        <v>10.19798324053704</v>
       </c>
       <c r="L25">
-        <v>6.015088456323411</v>
+        <v>0.04113483748198021</v>
+      </c>
+      <c r="M25">
+        <v>5.980467441397707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.00441749943671077</v>
+        <v>0.1624382547242078</v>
       </c>
       <c r="D2">
-        <v>0.02174815161602339</v>
+        <v>0.1027603420277785</v>
       </c>
       <c r="E2">
-        <v>0.05061136208980344</v>
+        <v>0.01223431161395805</v>
       </c>
       <c r="F2">
-        <v>2.380110720354921</v>
+        <v>3.983938993557985</v>
       </c>
       <c r="G2">
-        <v>0.0007101241307768017</v>
+        <v>0.0007024563788517897</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.778419005337184</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.367530232775039</v>
+        <v>5.073607295099151</v>
       </c>
       <c r="L2">
-        <v>0.03536283043462696</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4.898974637148697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>3.191994853860791</v>
+      </c>
+      <c r="N2">
+        <v>0.7266135451289415</v>
+      </c>
+      <c r="O2">
+        <v>3.345282508530914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.002918886906058127</v>
+        <v>0.1381197317787866</v>
       </c>
       <c r="D3">
-        <v>0.01651489704333997</v>
+        <v>0.08694039833255118</v>
       </c>
       <c r="E3">
-        <v>0.0453583254107528</v>
+        <v>0.01250160265357181</v>
       </c>
       <c r="F3">
-        <v>2.0063430535739</v>
+        <v>3.398647073083538</v>
       </c>
       <c r="G3">
-        <v>0.0007275396307898661</v>
+        <v>0.0007178481321809336</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.498935852335265</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.180408184771466</v>
+        <v>4.345905644282823</v>
       </c>
       <c r="L3">
-        <v>0.03175129112171682</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.200106016206433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.729006443006682</v>
+      </c>
+      <c r="N3">
+        <v>0.7296648481321597</v>
+      </c>
+      <c r="O3">
+        <v>2.852614471757448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.002177043273478674</v>
+        <v>0.1237319293809378</v>
       </c>
       <c r="D4">
-        <v>0.01439654541362501</v>
+        <v>0.07801230009230409</v>
       </c>
       <c r="E4">
-        <v>0.04221114581796925</v>
+        <v>0.01267087862541771</v>
       </c>
       <c r="F4">
-        <v>1.798338118147058</v>
+        <v>3.057795795046815</v>
       </c>
       <c r="G4">
-        <v>0.0007382646786204728</v>
+        <v>0.0007273782346771532</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.344302415560406</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.469939975005104</v>
+        <v>3.910543314603871</v>
       </c>
       <c r="L4">
-        <v>0.02964727946226731</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.782834637943168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.453009994333826</v>
+      </c>
+      <c r="N4">
+        <v>0.7330604352348615</v>
+      </c>
+      <c r="O4">
+        <v>2.566162417849014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.001911389889263759</v>
+        <v>0.1179810613682832</v>
       </c>
       <c r="D5">
-        <v>0.01376365475039876</v>
+        <v>0.07453878993327834</v>
       </c>
       <c r="E5">
-        <v>0.040945401630891</v>
+        <v>0.01274172618669311</v>
       </c>
       <c r="F5">
-        <v>1.718091326209006</v>
+        <v>2.922783458926403</v>
       </c>
       <c r="G5">
-        <v>0.0007426555278778638</v>
+        <v>0.0007312907489583193</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.284857798577235</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.184103862379345</v>
+        <v>3.735461550168537</v>
       </c>
       <c r="L5">
-        <v>0.02881424422257695</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3.61517374764955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.342238840033659</v>
+      </c>
+      <c r="N5">
+        <v>0.7348003991809833</v>
+      </c>
+      <c r="O5">
+        <v>2.452799476615752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.001869282778771186</v>
+        <v>0.117032272354038</v>
       </c>
       <c r="D6">
-        <v>0.01367132252484282</v>
+        <v>0.07397111269619927</v>
       </c>
       <c r="E6">
-        <v>0.04073616175870498</v>
+        <v>0.01275361856856794</v>
       </c>
       <c r="F6">
-        <v>1.705016275617524</v>
+        <v>2.900579341483677</v>
       </c>
       <c r="G6">
-        <v>0.0007433861705798984</v>
+        <v>0.0007319424005957665</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.275184631444603</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.136838950491324</v>
+        <v>3.706515846947838</v>
       </c>
       <c r="L6">
-        <v>0.02867728269465708</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3.58746209883698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.323937983348145</v>
+      </c>
+      <c r="N6">
+        <v>0.735110130467632</v>
+      </c>
+      <c r="O6">
+        <v>2.434161602600113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.002173321823435437</v>
+        <v>0.1236539460968089</v>
       </c>
       <c r="D7">
-        <v>0.01438713052045415</v>
+        <v>0.07796482730277177</v>
       </c>
       <c r="E7">
-        <v>0.04219401119943456</v>
+        <v>0.01267182583633453</v>
       </c>
       <c r="F7">
-        <v>1.797238649220049</v>
+        <v>3.055960160166734</v>
       </c>
       <c r="G7">
-        <v>0.000738323798287014</v>
+        <v>0.0007274308723572379</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.343487101296361</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.466071300662463</v>
+        <v>3.908173318313771</v>
       </c>
       <c r="L7">
-        <v>0.02963595118413842</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>3.780564577442192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.451509675517016</v>
+      </c>
+      <c r="N7">
+        <v>0.7330824909058293</v>
+      </c>
+      <c r="O7">
+        <v>2.564620730231269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.003858290173154089</v>
+        <v>0.1539242893414041</v>
       </c>
       <c r="D8">
-        <v>0.01968644984441426</v>
+        <v>0.09712104377969411</v>
       </c>
       <c r="E8">
-        <v>0.04878197107703386</v>
+        <v>0.01232576580243805</v>
       </c>
       <c r="F8">
-        <v>2.246186462234022</v>
+        <v>3.77778130341602</v>
       </c>
       <c r="G8">
-        <v>0.0007161305245606717</v>
+        <v>0.0007077528063608174</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.678067704141753</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.953757385136129</v>
+        <v>4.819960131087356</v>
       </c>
       <c r="L8">
-        <v>0.03409125909624855</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>4.655153444255973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3.030386904032738</v>
+      </c>
+      <c r="N8">
+        <v>0.7273325170322948</v>
+      </c>
+      <c r="O8">
+        <v>3.171642072213601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.009063736684952417</v>
+        <v>0.2189733029866829</v>
       </c>
       <c r="D9">
-        <v>0.04142082768536426</v>
+        <v>0.1427769514443753</v>
       </c>
       <c r="E9">
-        <v>0.06248523588885391</v>
+        <v>0.01165860406735231</v>
       </c>
       <c r="F9">
-        <v>3.348648729874441</v>
+        <v>5.383458896145754</v>
       </c>
       <c r="G9">
-        <v>0.0006721525905934435</v>
+        <v>0.000669294757137891</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.509412758007784</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.07198813435505</v>
+        <v>6.729617252982962</v>
       </c>
       <c r="L9">
-        <v>0.04396743158857852</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>6.498489429277896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4.252740804335133</v>
+      </c>
+      <c r="N9">
+        <v>0.729575830058991</v>
+      </c>
+      <c r="O9">
+        <v>4.526826181246889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01501623076762826</v>
+        <v>0.2727543585938434</v>
       </c>
       <c r="D10">
-        <v>0.06955060115365086</v>
+        <v>0.184720086371442</v>
       </c>
       <c r="E10">
-        <v>0.07333043311755105</v>
+        <v>0.01112689555088942</v>
       </c>
       <c r="F10">
-        <v>4.393959908486721</v>
+        <v>6.758622425339041</v>
       </c>
       <c r="G10">
-        <v>0.00063820079398015</v>
+        <v>0.0006402013473877192</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.305753358998459</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.58961306789428</v>
+        <v>8.263526758418521</v>
       </c>
       <c r="L10">
-        <v>0.05236706529519353</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>7.996574649092935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5.243379263537037</v>
+      </c>
+      <c r="N10">
+        <v>0.7419949257968739</v>
+      </c>
+      <c r="O10">
+        <v>5.691963104091116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01854526874714857</v>
+        <v>0.2993514439197185</v>
       </c>
       <c r="D11">
-        <v>0.08691299702366706</v>
+        <v>0.2067923871620394</v>
       </c>
       <c r="E11">
-        <v>0.078530407549394</v>
+        <v>0.01086232619186589</v>
       </c>
       <c r="F11">
-        <v>4.956391750097168</v>
+        <v>7.452935847340029</v>
       </c>
       <c r="G11">
-        <v>0.0006219171258517023</v>
+        <v>0.0006264815560309287</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.736541650507533</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.82054409052358</v>
+        <v>9.008501274933906</v>
       </c>
       <c r="L11">
-        <v>0.05658948706123468</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>8.732270138800544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.727120889583148</v>
+      </c>
+      <c r="N11">
+        <v>0.7507643522583862</v>
+      </c>
+      <c r="O11">
+        <v>6.281640096393744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02004898214639539</v>
+        <v>0.3098314464474043</v>
       </c>
       <c r="D12">
-        <v>0.09440624989165514</v>
+        <v>0.2157268463784021</v>
       </c>
       <c r="E12">
-        <v>0.08054965571645312</v>
+        <v>0.01075743816147057</v>
       </c>
       <c r="F12">
-        <v>5.186649025752729</v>
+        <v>7.728972636871703</v>
       </c>
       <c r="G12">
-        <v>0.0006155666130207519</v>
+        <v>0.0006211793185743314</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.913297001956806</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.30373211383224</v>
+        <v>9.299694028854532</v>
       </c>
       <c r="L12">
-        <v>0.0582655478380989</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>9.021657788461994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.916649982156429</v>
+      </c>
+      <c r="N12">
+        <v>0.7546242522149385</v>
+      </c>
+      <c r="O12">
+        <v>6.51632500205443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01971663010180258</v>
+        <v>0.3075541926106098</v>
       </c>
       <c r="D13">
-        <v>0.09274599464126965</v>
+        <v>0.2137740701316204</v>
       </c>
       <c r="E13">
-        <v>0.08011230811031922</v>
+        <v>0.0107802629603615</v>
       </c>
       <c r="F13">
-        <v>5.136189446576623</v>
+        <v>7.668874973644421</v>
       </c>
       <c r="G13">
-        <v>0.000616943844743653</v>
+        <v>0.0006223267478679961</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.87454371572683</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.19881084661381</v>
+        <v>9.236530077242804</v>
       </c>
       <c r="L13">
-        <v>0.05790074943344159</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>8.958789980743575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.87551740125781</v>
+      </c>
+      <c r="N13">
+        <v>0.7537672191419915</v>
+      </c>
+      <c r="O13">
+        <v>6.465218492405427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01866525541019115</v>
+        <v>0.300204737833667</v>
       </c>
       <c r="D14">
-        <v>0.08750909935069728</v>
+        <v>0.2075148411926904</v>
       </c>
       <c r="E14">
-        <v>0.07869544405858164</v>
+        <v>0.01085380053674712</v>
       </c>
       <c r="F14">
-        <v>4.974953384426385</v>
+        <v>7.47535981069916</v>
       </c>
       <c r="G14">
-        <v>0.0006213988287614226</v>
+        <v>0.0006260477422060032</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.750782307805224</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.85991943538104</v>
+        <v>9.032259446196747</v>
       </c>
       <c r="L14">
-        <v>0.05672569158573992</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>8.755839782872016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.742575131997569</v>
+      </c>
+      <c r="N14">
+        <v>0.7510704820718388</v>
+      </c>
+      <c r="O14">
+        <v>6.300699624954376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01804492697198157</v>
+        <v>0.2957598158954937</v>
       </c>
       <c r="D15">
-        <v>0.08443090150076671</v>
+        <v>0.2037612141249809</v>
       </c>
       <c r="E15">
-        <v>0.07783452751490572</v>
+        <v>0.01089818433490652</v>
       </c>
       <c r="F15">
-        <v>4.878621416460646</v>
+        <v>7.358650683931074</v>
       </c>
       <c r="G15">
-        <v>0.0006241012560368902</v>
+        <v>0.0006283117053806283</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.676891255752679</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.65473737809546</v>
+        <v>8.908404183356112</v>
       </c>
       <c r="L15">
-        <v>0.05601669082185801</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>8.6330447950956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.662027834323339</v>
+      </c>
+      <c r="N15">
+        <v>0.7494920332352564</v>
+      </c>
+      <c r="O15">
+        <v>6.201511365836211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01480582508609984</v>
+        <v>0.2710669613486516</v>
       </c>
       <c r="D16">
-        <v>0.06852752792196526</v>
+        <v>0.1833490794302861</v>
       </c>
       <c r="E16">
-        <v>0.072996881256298</v>
+        <v>0.01114361284573118</v>
       </c>
       <c r="F16">
-        <v>4.35931410751445</v>
+        <v>6.714881011683275</v>
       </c>
       <c r="G16">
-        <v>0.0006392432666523131</v>
+        <v>0.0006410853327961415</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.279264525954233</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.51125336111767</v>
+        <v>8.215968827328595</v>
       </c>
       <c r="L16">
-        <v>0.05210068565460624</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>7.949814226405493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5.212554704259787</v>
+      </c>
+      <c r="N16">
+        <v>0.7414917235945779</v>
+      </c>
+      <c r="O16">
+        <v>5.654844277086113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01305749054447958</v>
+        <v>0.2565264440353872</v>
       </c>
       <c r="D17">
-        <v>0.06009244239205458</v>
+        <v>0.1716811390876671</v>
       </c>
       <c r="E17">
-        <v>0.07010457065660347</v>
+        <v>0.011287429273386</v>
       </c>
       <c r="F17">
-        <v>4.06578517908153</v>
+        <v>6.33951458857058</v>
       </c>
       <c r="G17">
-        <v>0.000648280291687966</v>
+        <v>0.0006487748118174525</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.055085018951701</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.83449487312095</v>
+        <v>7.80466398736462</v>
       </c>
       <c r="L17">
-        <v>0.04981272919354396</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>7.546324433283189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.946257952705494</v>
+      </c>
+      <c r="N17">
+        <v>0.7374391333074328</v>
+      </c>
+      <c r="O17">
+        <v>5.336462129208826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01212528952873271</v>
+        <v>0.2483560547112234</v>
       </c>
       <c r="D18">
-        <v>0.05564989078425242</v>
+        <v>0.1652405177194254</v>
       </c>
       <c r="E18">
-        <v>0.06846517490265569</v>
+        <v>0.01136811416145989</v>
       </c>
       <c r="F18">
-        <v>3.904761006656742</v>
+        <v>6.129838714330674</v>
       </c>
       <c r="G18">
-        <v>0.0006534041693892958</v>
+        <v>0.0006531547617604767</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.932297223296345</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.45293392789424</v>
+        <v>7.572359216547198</v>
       </c>
       <c r="L18">
-        <v>0.04853304393737723</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>7.319116500318785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.796085643152793</v>
+      </c>
+      <c r="N18">
+        <v>0.7353951601846234</v>
+      </c>
+      <c r="O18">
+        <v>5.158737991325836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01182111305930711</v>
+        <v>0.2456202930508766</v>
       </c>
       <c r="D19">
-        <v>0.0542098105232327</v>
+        <v>0.1631026732287069</v>
       </c>
       <c r="E19">
-        <v>0.06791396106100933</v>
+        <v>0.01139512241047846</v>
       </c>
       <c r="F19">
-        <v>3.851467972230552</v>
+        <v>6.059834532982649</v>
       </c>
       <c r="G19">
-        <v>0.0006551278411480447</v>
+        <v>0.0006546313071900123</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.891690719411869</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.32495092295483</v>
+        <v>7.494380186602143</v>
       </c>
       <c r="L19">
-        <v>0.04810552163344717</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>7.242951840645389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.745714464381038</v>
+      </c>
+      <c r="N19">
+        <v>0.7347500600559727</v>
+      </c>
+      <c r="O19">
+        <v>5.099421121840578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01323572184759314</v>
+        <v>0.2580537151741282</v>
       </c>
       <c r="D20">
-        <v>0.06094650685349023</v>
+        <v>0.1728943309803554</v>
       </c>
       <c r="E20">
-        <v>0.07040988637923107</v>
+        <v>0.01127233982149534</v>
       </c>
       <c r="F20">
-        <v>4.096195877326437</v>
+        <v>6.378808933225031</v>
       </c>
       <c r="G20">
-        <v>0.0006473263169121474</v>
+        <v>0.0006479609142130376</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.078290212785305</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.90571264723263</v>
+        <v>7.84799238367944</v>
       </c>
       <c r="L20">
-        <v>0.05005241365508262</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>7.588754922653806</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.974286029249683</v>
+      </c>
+      <c r="N20">
+        <v>0.7378402685944252</v>
+      </c>
+      <c r="O20">
+        <v>5.369778278327459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01896901165205556</v>
+        <v>0.3023513685355397</v>
       </c>
       <c r="D21">
-        <v>0.08901964074364344</v>
+        <v>0.2093362409692077</v>
       </c>
       <c r="E21">
-        <v>0.07911013453723825</v>
+        <v>0.01083234133795052</v>
       </c>
       <c r="F21">
-        <v>5.021793996977038</v>
+        <v>7.531812085687932</v>
       </c>
       <c r="G21">
-        <v>0.0006200959478133447</v>
+        <v>0.0006249580621300363</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.786725214565209</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.95894845208196</v>
+        <v>9.091989354772124</v>
       </c>
       <c r="L21">
-        <v>0.05706854611092282</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>8.815127434671865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.781435616377593</v>
+      </c>
+      <c r="N21">
+        <v>0.7518470822262486</v>
+      </c>
+      <c r="O21">
+        <v>6.348686027170658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02373590002220638</v>
+        <v>0.3337613295266237</v>
       </c>
       <c r="D22">
-        <v>0.1129548229902113</v>
+        <v>0.2366274583256143</v>
       </c>
       <c r="E22">
-        <v>0.08509766345193626</v>
+        <v>0.01051647156677138</v>
       </c>
       <c r="F22">
-        <v>5.731615175832673</v>
+        <v>8.364336773641526</v>
       </c>
       <c r="G22">
-        <v>0.0006011701812096614</v>
+        <v>0.0006092725620461803</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.332454390340288</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.4043609537016</v>
+        <v>9.959778090166168</v>
       </c>
       <c r="L22">
-        <v>0.06211948044304449</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>9.682131236415159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>6.347182902178503</v>
+      </c>
+      <c r="N22">
+        <v>0.7642095507932964</v>
+      </c>
+      <c r="O22">
+        <v>7.057029227693363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02107470801682787</v>
+        <v>0.3167275261871936</v>
       </c>
       <c r="D23">
-        <v>0.09954362636175063</v>
+        <v>0.2216787449766144</v>
       </c>
       <c r="E23">
-        <v>0.08186922917013817</v>
+        <v>0.01068820562485318</v>
       </c>
       <c r="F23">
-        <v>5.340915453808236</v>
+        <v>7.91135355626156</v>
       </c>
       <c r="G23">
-        <v>0.0006114044167767618</v>
+        <v>0.0006177202000163916</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.031836664336822</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.62123866866011</v>
+        <v>9.490597878925996</v>
       </c>
       <c r="L23">
-        <v>0.0593722930390328</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>9.212003665017249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6.041037245905642</v>
+      </c>
+      <c r="N23">
+        <v>0.7572796990484818</v>
+      </c>
+      <c r="O23">
+        <v>6.67146004262338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01315491961665671</v>
+        <v>0.2573626538445239</v>
       </c>
       <c r="D24">
-        <v>0.06055913469459995</v>
+        <v>0.172345024078723</v>
       </c>
       <c r="E24">
-        <v>0.07027178098088527</v>
+        <v>0.01127916787868788</v>
       </c>
       <c r="F24">
-        <v>4.082423450447948</v>
+        <v>6.361025100368522</v>
       </c>
       <c r="G24">
-        <v>0.0006477578277768235</v>
+        <v>0.000648329001827727</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.06778041384166</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.87349200430933</v>
+        <v>7.828390819293077</v>
       </c>
       <c r="L24">
-        <v>0.04994394247988332</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>7.569557465925783</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.96160553529873</v>
+      </c>
+      <c r="N24">
+        <v>0.7376580311755987</v>
+      </c>
+      <c r="O24">
+        <v>5.354699678996553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.007371095541968131</v>
+        <v>0.2005456188631172</v>
       </c>
       <c r="D25">
-        <v>0.03388681767392399</v>
+        <v>0.1292584936922054</v>
       </c>
       <c r="E25">
-        <v>0.05866780038753205</v>
+        <v>0.01184238676099092</v>
       </c>
       <c r="F25">
-        <v>3.018151460600336</v>
+        <v>4.921753972543257</v>
       </c>
       <c r="G25">
-        <v>0.0006842149850324744</v>
+        <v>0.0006797652174404874</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.259078157855271</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.19798324053704</v>
+        <v>6.195012946935833</v>
       </c>
       <c r="L25">
-        <v>0.04113483748198021</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>5.980467441397707</v>
+        <v>3.909269418770009</v>
+      </c>
+      <c r="N25">
+        <v>0.7272938946698275</v>
+      </c>
+      <c r="O25">
+        <v>4.136527524666747</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1624382547242078</v>
+        <v>0.00574227983107356</v>
       </c>
       <c r="D2">
-        <v>0.1027603420277785</v>
+        <v>0.07780976496763969</v>
       </c>
       <c r="E2">
-        <v>0.01223431161395805</v>
+        <v>0.1327232834363627</v>
       </c>
       <c r="F2">
-        <v>3.983938993557985</v>
+        <v>2.102741431396893</v>
       </c>
       <c r="G2">
-        <v>0.0007024563788517897</v>
+        <v>0.0007497140632721343</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.339969740891647</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2298299464142559</v>
       </c>
       <c r="K2">
-        <v>5.073607295099151</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.191994853860791</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7266135451289415</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>3.345282508530914</v>
+        <v>5.94253518279254</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1381197317787866</v>
+        <v>0.005191033889968111</v>
       </c>
       <c r="D3">
-        <v>0.08694039833255118</v>
+        <v>0.07353815730570545</v>
       </c>
       <c r="E3">
-        <v>0.01250160265357181</v>
+        <v>0.1190968390018767</v>
       </c>
       <c r="F3">
-        <v>3.398647073083538</v>
+        <v>1.850252177029347</v>
       </c>
       <c r="G3">
-        <v>0.0007178481321809336</v>
+        <v>0.0007569124193132122</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.172644208695587</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2025863674040167</v>
       </c>
       <c r="K3">
-        <v>4.345905644282823</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.729006443006682</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7296648481321597</v>
+        <v>6.74968365211538</v>
       </c>
       <c r="O3">
-        <v>2.852614471757448</v>
+        <v>5.207612990269126</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1237319293809378</v>
+        <v>0.004852714876742326</v>
       </c>
       <c r="D4">
-        <v>0.07801230009230409</v>
+        <v>0.07102275159603977</v>
       </c>
       <c r="E4">
-        <v>0.01267087862541771</v>
+        <v>0.1109569719955807</v>
       </c>
       <c r="F4">
-        <v>3.057795795046815</v>
+        <v>1.698716305885483</v>
       </c>
       <c r="G4">
-        <v>0.0007273782346771532</v>
+        <v>0.0007614608559070596</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.072090952894584</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1862621206384318</v>
       </c>
       <c r="K4">
-        <v>3.910543314603871</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.453009994333826</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7330604352348615</v>
+        <v>6.187481969423061</v>
       </c>
       <c r="O4">
-        <v>2.566162417849014</v>
+        <v>4.766206282934604</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1179810613682832</v>
+        <v>0.004714793478093782</v>
       </c>
       <c r="D5">
-        <v>0.07453878993327834</v>
+        <v>0.07002293237460577</v>
       </c>
       <c r="E5">
-        <v>0.01274172618669311</v>
+        <v>0.107691436571681</v>
       </c>
       <c r="F5">
-        <v>2.922783458926403</v>
+        <v>1.63774572950004</v>
       </c>
       <c r="G5">
-        <v>0.0007312907489583193</v>
+        <v>0.0007633479938319834</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.03160098139179</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.179700199564607</v>
       </c>
       <c r="K5">
-        <v>3.735461550168537</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.342238840033659</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7348003991809833</v>
+        <v>5.958052239810286</v>
       </c>
       <c r="O5">
-        <v>2.452799476615752</v>
+        <v>4.588521235635369</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.117032272354038</v>
+        <v>0.004691885967309517</v>
       </c>
       <c r="D6">
-        <v>0.07397111269619927</v>
+        <v>0.06985838763392849</v>
       </c>
       <c r="E6">
-        <v>0.01275361856856794</v>
+        <v>0.1071521559909492</v>
       </c>
       <c r="F6">
-        <v>2.900579341483677</v>
+        <v>1.627666123708465</v>
       </c>
       <c r="G6">
-        <v>0.0007319424005957665</v>
+        <v>0.0007636634172546745</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.024905269757184</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1786157460822366</v>
       </c>
       <c r="K6">
-        <v>3.706515846947838</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.323937983348145</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.735110130467632</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>2.434161602600113</v>
+        <v>4.559141319111518</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1236539460968089</v>
+        <v>0.004850855152735534</v>
       </c>
       <c r="D7">
-        <v>0.07796482730277177</v>
+        <v>0.07100916777820743</v>
       </c>
       <c r="E7">
-        <v>0.01267182583633453</v>
+        <v>0.1109127301850386</v>
       </c>
       <c r="F7">
-        <v>3.055960160166734</v>
+        <v>1.697890993610685</v>
       </c>
       <c r="G7">
-        <v>0.0007274308723572379</v>
+        <v>0.0007614861688178928</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.071543001909987</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1861732725178484</v>
       </c>
       <c r="K7">
-        <v>3.908173318313771</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.451509675517016</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7330824909058293</v>
+        <v>6.184389112219776</v>
       </c>
       <c r="O7">
-        <v>2.564620730231269</v>
+        <v>4.763801442582292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1539242893414041</v>
+        <v>0.005552122377016744</v>
       </c>
       <c r="D8">
-        <v>0.09712104377969411</v>
+        <v>0.07631351741943604</v>
       </c>
       <c r="E8">
-        <v>0.01232576580243805</v>
+        <v>0.1279743491417555</v>
       </c>
       <c r="F8">
-        <v>3.77778130341602</v>
+        <v>2.014897157585821</v>
       </c>
       <c r="G8">
-        <v>0.0007077528063608174</v>
+        <v>0.0007521701573776077</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.281782640556642</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2203456576905012</v>
       </c>
       <c r="K8">
-        <v>4.819960131087356</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.030386904032738</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7273325170322948</v>
+        <v>7.348453399592813</v>
       </c>
       <c r="O8">
-        <v>3.171642072213601</v>
+        <v>5.686914776933349</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2189733029866829</v>
+        <v>0.006933029546072333</v>
       </c>
       <c r="D9">
-        <v>0.1427769514443753</v>
+        <v>0.08765532632377671</v>
       </c>
       <c r="E9">
-        <v>0.01165860406735231</v>
+        <v>0.1635063726218675</v>
       </c>
       <c r="F9">
-        <v>5.383458896145754</v>
+        <v>2.669101702893755</v>
       </c>
       <c r="G9">
-        <v>0.000669294757137891</v>
+        <v>0.0007348591454885888</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.714554477890246</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2911124238377027</v>
       </c>
       <c r="K9">
-        <v>6.729617252982962</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.252740804335133</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.729575830058991</v>
+        <v>9.620230281550789</v>
       </c>
       <c r="O9">
-        <v>4.526826181246889</v>
+        <v>7.58928404864389</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2727543585938434</v>
+        <v>0.007958159863424186</v>
       </c>
       <c r="D10">
-        <v>0.184720086371442</v>
+        <v>0.09669743349445525</v>
       </c>
       <c r="E10">
-        <v>0.01112689555088942</v>
+        <v>0.1913030911541753</v>
       </c>
       <c r="F10">
-        <v>6.758622425339041</v>
+        <v>3.177126618260132</v>
       </c>
       <c r="G10">
-        <v>0.0006402013473877192</v>
+        <v>0.0007226275367443076</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.049915963616598</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3462568387140266</v>
       </c>
       <c r="K10">
-        <v>8.263526758418521</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.243379263537037</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7419949257968739</v>
+        <v>11.28258838837513</v>
       </c>
       <c r="O10">
-        <v>5.691963104091116</v>
+        <v>9.065077140350013</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2993514439197185</v>
+        <v>0.008428616968128466</v>
       </c>
       <c r="D11">
-        <v>0.2067923871620394</v>
+        <v>0.1009994930281053</v>
       </c>
       <c r="E11">
-        <v>0.01086232619186589</v>
+        <v>0.2044248548576917</v>
       </c>
       <c r="F11">
-        <v>7.452935847340029</v>
+        <v>3.41611492078772</v>
       </c>
       <c r="G11">
-        <v>0.0006264815560309287</v>
+        <v>0.0007171442110392672</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.207517218542066</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3722491274678248</v>
       </c>
       <c r="K11">
-        <v>9.008501274933906</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.727120889583148</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7507643522583862</v>
+        <v>12.03742316731751</v>
       </c>
       <c r="O11">
-        <v>6.281640096393744</v>
+        <v>9.759041800641285</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3098314464474043</v>
+        <v>0.008607529192506291</v>
       </c>
       <c r="D12">
-        <v>0.2157268463784021</v>
+        <v>0.1026589863349656</v>
       </c>
       <c r="E12">
-        <v>0.01075743816147057</v>
+        <v>0.2094727047282845</v>
       </c>
       <c r="F12">
-        <v>7.728972636871703</v>
+        <v>3.507931801680655</v>
       </c>
       <c r="G12">
-        <v>0.0006211793185743314</v>
+        <v>0.0007150771294545663</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.268042134944963</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3822432978934245</v>
       </c>
       <c r="K12">
-        <v>9.299694028854532</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.916649982156429</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7546242522149385</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>6.51632500205443</v>
+        <v>10.02561864533766</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3075541926106098</v>
+        <v>0.00856896052831857</v>
       </c>
       <c r="D13">
-        <v>0.2137740701316204</v>
+        <v>0.1023001768123706</v>
       </c>
       <c r="E13">
-        <v>0.0107802629603615</v>
+        <v>0.2083818709630663</v>
       </c>
       <c r="F13">
-        <v>7.668874973644421</v>
+        <v>3.488095638093966</v>
       </c>
       <c r="G13">
-        <v>0.0006223267478679961</v>
+        <v>0.0007155219368795901</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.254967373350283</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3800837738810827</v>
       </c>
       <c r="K13">
-        <v>9.236530077242804</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.87551740125781</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7537672191419915</v>
+        <v>12.2615545799186</v>
       </c>
       <c r="O13">
-        <v>6.465218492405427</v>
+        <v>9.968028840812906</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.300204737833667</v>
+        <v>0.008443319910249159</v>
       </c>
       <c r="D14">
-        <v>0.2075148411926904</v>
+        <v>0.1011353913048723</v>
       </c>
       <c r="E14">
-        <v>0.01085380053674712</v>
+        <v>0.2048384988340857</v>
       </c>
       <c r="F14">
-        <v>7.47535981069916</v>
+        <v>3.423641218142137</v>
       </c>
       <c r="G14">
-        <v>0.0006260477422060032</v>
+        <v>0.000716973978080405</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.212478970827078</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3730681881836944</v>
       </c>
       <c r="K14">
-        <v>9.032259446196747</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.742575131997569</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7510704820718388</v>
+        <v>12.06092695796559</v>
       </c>
       <c r="O14">
-        <v>6.300699624954376</v>
+        <v>9.780894020676385</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2957598158954937</v>
+        <v>0.008366465759678476</v>
       </c>
       <c r="D15">
-        <v>0.2037612141249809</v>
+        <v>0.1004259883485972</v>
       </c>
       <c r="E15">
-        <v>0.01089818433490652</v>
+        <v>0.202678688498537</v>
       </c>
       <c r="F15">
-        <v>7.358650683931074</v>
+        <v>3.384338403655192</v>
       </c>
       <c r="G15">
-        <v>0.0006283117053806283</v>
+        <v>0.000717864537866332</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.186567414436013</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3687913344089111</v>
       </c>
       <c r="K15">
-        <v>8.908404183356112</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.662027834323339</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7494920332352564</v>
+        <v>11.93801081193851</v>
       </c>
       <c r="O15">
-        <v>6.201511365836211</v>
+        <v>9.666778832012596</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2710669613486516</v>
+        <v>0.007927511176710311</v>
       </c>
       <c r="D16">
-        <v>0.1833490794302861</v>
+        <v>0.09642035148118566</v>
       </c>
       <c r="E16">
-        <v>0.01114361284573118</v>
+        <v>0.1904560047181363</v>
       </c>
       <c r="F16">
-        <v>6.714881011683275</v>
+        <v>3.161681989588146</v>
       </c>
       <c r="G16">
-        <v>0.0006410853327961415</v>
+        <v>0.0007229873226615169</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.03972771457839</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3445781685995826</v>
       </c>
       <c r="K16">
-        <v>8.215968827328595</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>5.212554704259787</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7414917235945779</v>
+        <v>11.23323027560724</v>
       </c>
       <c r="O16">
-        <v>5.654844277086113</v>
+        <v>9.020224264662204</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2565264440353872</v>
+        <v>0.007659395136883518</v>
       </c>
       <c r="D17">
-        <v>0.1716811390876671</v>
+        <v>0.09401356474388933</v>
       </c>
       <c r="E17">
-        <v>0.011287429273386</v>
+        <v>0.1830868943701489</v>
       </c>
       <c r="F17">
-        <v>6.33951458857058</v>
+        <v>3.027232415914284</v>
       </c>
       <c r="G17">
-        <v>0.0006487748118174525</v>
+        <v>0.0007261491547079878</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.95101849134825</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3299705946886604</v>
       </c>
       <c r="K17">
-        <v>7.80466398736462</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.946257952705494</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7374391333074328</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>5.336462129208826</v>
+        <v>8.629737025193492</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2483560547112234</v>
+        <v>0.007505558512416854</v>
       </c>
       <c r="D18">
-        <v>0.1652405177194254</v>
+        <v>0.09264679546885191</v>
       </c>
       <c r="E18">
-        <v>0.01136811416145989</v>
+        <v>0.1788925745264933</v>
       </c>
       <c r="F18">
-        <v>6.129838714330674</v>
+        <v>2.950630524986764</v>
       </c>
       <c r="G18">
-        <v>0.0006531547617604767</v>
+        <v>0.000727975523773434</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.900462041602509</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3216526510859978</v>
       </c>
       <c r="K18">
-        <v>7.572359216547198</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.796085643152793</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7353951601846234</v>
+        <v>10.55149949033284</v>
       </c>
       <c r="O18">
-        <v>5.158737991325836</v>
+        <v>8.407232346872604</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2456202930508766</v>
+        <v>0.007453531975940564</v>
       </c>
       <c r="D19">
-        <v>0.1631026732287069</v>
+        <v>0.09218695229287732</v>
       </c>
       <c r="E19">
-        <v>0.01139512241047846</v>
+        <v>0.1774797461879132</v>
       </c>
       <c r="F19">
-        <v>6.059834532982649</v>
+        <v>2.924814593606385</v>
       </c>
       <c r="G19">
-        <v>0.0006546313071900123</v>
+        <v>0.0007285953006310948</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.88342126110409</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.318850157263995</v>
       </c>
       <c r="K19">
-        <v>7.494380186602143</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.745714464381038</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7347500600559727</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>5.099421121840578</v>
+        <v>8.332240387438787</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2580537151741282</v>
+        <v>0.007687896416467055</v>
       </c>
       <c r="D20">
-        <v>0.1728943309803554</v>
+        <v>0.09426793251593324</v>
       </c>
       <c r="E20">
-        <v>0.01127233982149534</v>
+        <v>0.1838667035995272</v>
       </c>
       <c r="F20">
-        <v>6.378808933225031</v>
+        <v>3.041468000912033</v>
       </c>
       <c r="G20">
-        <v>0.0006479609142130376</v>
+        <v>0.0007258117842793558</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.960412614998177</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3315167636373815</v>
       </c>
       <c r="K20">
-        <v>7.84799238367944</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.974286029249683</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7378402685944252</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>5.369778278327459</v>
+        <v>8.671084754069682</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3023513685355397</v>
+        <v>0.008480201528286102</v>
       </c>
       <c r="D21">
-        <v>0.2093362409692077</v>
+        <v>0.1014766641973566</v>
       </c>
       <c r="E21">
-        <v>0.01083234133795052</v>
+        <v>0.2058770422011094</v>
       </c>
       <c r="F21">
-        <v>7.531812085687932</v>
+        <v>3.442535717124315</v>
       </c>
       <c r="G21">
-        <v>0.0006249580621300363</v>
+        <v>0.0007165472446870695</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.22493488996804</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3751245439719071</v>
       </c>
       <c r="K21">
-        <v>9.091989354772124</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.781435616377593</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7518470822262486</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>6.348686027170658</v>
+        <v>9.835752655354952</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3337613295266237</v>
+        <v>0.009002544228476239</v>
       </c>
       <c r="D22">
-        <v>0.2366274583256143</v>
+        <v>0.1063669678875101</v>
       </c>
       <c r="E22">
-        <v>0.01051647156677138</v>
+        <v>0.2207278809465194</v>
       </c>
       <c r="F22">
-        <v>8.364336773641526</v>
+        <v>3.712437093440258</v>
       </c>
       <c r="G22">
-        <v>0.0006092725620461803</v>
+        <v>0.000710545463882197</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.40280628890099</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4045193642391069</v>
       </c>
       <c r="K22">
-        <v>9.959778090166168</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6.347182902178503</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7642095507932964</v>
+        <v>12.95085643057945</v>
       </c>
       <c r="O22">
-        <v>7.057029227693363</v>
+        <v>10.61930708427468</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3167275261871936</v>
+        <v>0.008723284886883675</v>
       </c>
       <c r="D23">
-        <v>0.2216787449766144</v>
+        <v>0.1037393631589723</v>
       </c>
       <c r="E23">
-        <v>0.01068820562485318</v>
+        <v>0.212755315527815</v>
       </c>
       <c r="F23">
-        <v>7.91135355626156</v>
+        <v>3.56760682207468</v>
       </c>
       <c r="G23">
-        <v>0.0006177202000163916</v>
+        <v>0.0007137447012834987</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.307372705115128</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3887412476270811</v>
       </c>
       <c r="K23">
-        <v>9.490597878925996</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>6.041037245905642</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7572796990484818</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>6.67146004262338</v>
+        <v>10.19886652046341</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2573626538445239</v>
+        <v>0.007675010044476238</v>
       </c>
       <c r="D24">
-        <v>0.172345024078723</v>
+        <v>0.09415288037102698</v>
       </c>
       <c r="E24">
-        <v>0.01127916787868788</v>
+        <v>0.1835140209195387</v>
       </c>
       <c r="F24">
-        <v>6.361025100368522</v>
+        <v>3.035029941841998</v>
       </c>
       <c r="G24">
-        <v>0.000648329001827727</v>
+        <v>0.0007259642824737131</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.956164158613333</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3308174925771397</v>
       </c>
       <c r="K24">
-        <v>7.828390819293077</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.96160553529873</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7376580311755987</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>5.354699678996553</v>
+        <v>8.652385281880925</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2005456188631172</v>
+        <v>0.006558157153605748</v>
       </c>
       <c r="D25">
-        <v>0.1292584936922054</v>
+        <v>0.0844732165690445</v>
       </c>
       <c r="E25">
-        <v>0.01184238676099092</v>
+        <v>0.1536306657293984</v>
       </c>
       <c r="F25">
-        <v>4.921753972543257</v>
+        <v>2.487908474482737</v>
       </c>
       <c r="G25">
-        <v>0.0006797652174404874</v>
+        <v>0.0007394491342950227</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.594809637393851</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.271482776086458</v>
       </c>
       <c r="K25">
-        <v>6.195012946935833</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.909269418770009</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7272938946698275</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>4.136527524666747</v>
+        <v>7.062657127029865</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.00574227983107356</v>
+        <v>0.005662360753353468</v>
       </c>
       <c r="D2">
-        <v>0.07780976496763969</v>
+        <v>0.1657542215531862</v>
       </c>
       <c r="E2">
-        <v>0.1327232834363627</v>
+        <v>0.1560617972850373</v>
       </c>
       <c r="F2">
-        <v>2.102741431396893</v>
+        <v>1.671014047417117</v>
       </c>
       <c r="G2">
-        <v>0.0007497140632721343</v>
+        <v>0.002420309550770803</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.339969740891647</v>
+        <v>0.9185472614003345</v>
       </c>
       <c r="J2">
-        <v>0.2298299464142559</v>
+        <v>0.1932238490453386</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
-        <v>5.94253518279254</v>
+        <v>4.250172472561133</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005191033889968111</v>
+        <v>0.005464652714179508</v>
       </c>
       <c r="D3">
-        <v>0.07353815730570545</v>
+        <v>0.1656575482198335</v>
       </c>
       <c r="E3">
-        <v>0.1190968390018767</v>
+        <v>0.1538024989725777</v>
       </c>
       <c r="F3">
-        <v>1.850252177029347</v>
+        <v>1.618929075160096</v>
       </c>
       <c r="G3">
-        <v>0.0007569124193132122</v>
+        <v>0.002425096453804731</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.172644208695587</v>
+        <v>0.8822415908493184</v>
       </c>
       <c r="J3">
-        <v>0.2025863674040167</v>
+        <v>0.1878352636291609</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679454</v>
       </c>
       <c r="O3">
-        <v>5.207612990269126</v>
+        <v>4.09312108477036</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.004852714876742326</v>
+        <v>0.005341410750705933</v>
       </c>
       <c r="D4">
-        <v>0.07102275159603977</v>
+        <v>0.1656594146240096</v>
       </c>
       <c r="E4">
-        <v>0.1109569719955807</v>
+        <v>0.15250064878731</v>
       </c>
       <c r="F4">
-        <v>1.698716305885483</v>
+        <v>1.587975245859468</v>
       </c>
       <c r="G4">
-        <v>0.0007614608559070596</v>
+        <v>0.002428193274214087</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.072090952894584</v>
+        <v>0.860529189211249</v>
       </c>
       <c r="J4">
-        <v>0.1862621206384318</v>
+        <v>0.1846464827536138</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375761</v>
       </c>
       <c r="O4">
-        <v>4.766206282934604</v>
+        <v>3.999359741489343</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.004714793478093782</v>
+        <v>0.005290722662971703</v>
       </c>
       <c r="D5">
-        <v>0.07002293237460577</v>
+        <v>0.1656755819618994</v>
       </c>
       <c r="E5">
-        <v>0.107691436571681</v>
+        <v>0.1519915571079054</v>
       </c>
       <c r="F5">
-        <v>1.63774572950004</v>
+        <v>1.575618501119649</v>
       </c>
       <c r="G5">
-        <v>0.0007633479938319834</v>
+        <v>0.00242949502869159</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.03160098139179</v>
+        <v>0.8518262437820994</v>
       </c>
       <c r="J5">
-        <v>0.179700199564607</v>
+        <v>0.1833770359118958</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>4.588521235635369</v>
+        <v>3.961819388656693</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.004691885967309517</v>
+        <v>0.005282277766172072</v>
       </c>
       <c r="D6">
-        <v>0.06985838763392849</v>
+        <v>0.1656791974117198</v>
       </c>
       <c r="E6">
-        <v>0.1071521559909492</v>
+        <v>0.1519083154531558</v>
       </c>
       <c r="F6">
-        <v>1.627666123708465</v>
+        <v>1.573582179559622</v>
       </c>
       <c r="G6">
-        <v>0.0007636634172546745</v>
+        <v>0.002429713590488196</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.024905269757184</v>
+        <v>0.8503898667386096</v>
       </c>
       <c r="J6">
-        <v>0.1786157460822366</v>
+        <v>0.1831680539588589</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>4.559141319111518</v>
+        <v>3.955626111343065</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.004850855152735534</v>
+        <v>0.005340729042476511</v>
       </c>
       <c r="D7">
-        <v>0.07100916777820743</v>
+        <v>0.1656595702656389</v>
       </c>
       <c r="E7">
-        <v>0.1109127301850386</v>
+        <v>0.1524936963151653</v>
       </c>
       <c r="F7">
-        <v>1.697890993610685</v>
+        <v>1.587807558372148</v>
       </c>
       <c r="G7">
-        <v>0.0007614861688178928</v>
+        <v>0.002428210668750603</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.071543001909987</v>
+        <v>0.860411231891959</v>
       </c>
       <c r="J7">
-        <v>0.1861732725178484</v>
+        <v>0.1846292412152337</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>4.763801442582292</v>
+        <v>3.998850757741138</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.005552122377016744</v>
+        <v>0.005594573897214516</v>
       </c>
       <c r="D8">
-        <v>0.07631351741943604</v>
+        <v>0.1657081878803552</v>
       </c>
       <c r="E8">
-        <v>0.1279743491417555</v>
+        <v>0.1552650454768632</v>
       </c>
       <c r="F8">
-        <v>2.014897157585821</v>
+        <v>1.65284149624074</v>
       </c>
       <c r="G8">
-        <v>0.0007521701573776077</v>
+        <v>0.002421927437248006</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.281782640556642</v>
+        <v>0.9059083892653348</v>
       </c>
       <c r="J8">
-        <v>0.2203456576905012</v>
+        <v>0.1913409155047248</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209654</v>
       </c>
       <c r="O8">
-        <v>5.686914776933349</v>
+        <v>4.195465394021312</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.006933029546072333</v>
+        <v>0.006077769785910903</v>
       </c>
       <c r="D9">
-        <v>0.08765532632377671</v>
+        <v>0.16628899260526</v>
       </c>
       <c r="E9">
-        <v>0.1635063726218675</v>
+        <v>0.1613794864529368</v>
       </c>
       <c r="F9">
-        <v>2.669101702893755</v>
+        <v>1.788569721226452</v>
       </c>
       <c r="G9">
-        <v>0.0007348591454885888</v>
+        <v>0.002410850731554764</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.714554477890246</v>
+        <v>0.9997616778198903</v>
       </c>
       <c r="J9">
-        <v>0.2911124238377027</v>
+        <v>0.2054599256648686</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550789</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>7.58928404864389</v>
+        <v>4.602361170041831</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.007958159863424186</v>
+        <v>0.006424007598560877</v>
       </c>
       <c r="D10">
-        <v>0.09669743349445525</v>
+        <v>0.1670115016796458</v>
       </c>
       <c r="E10">
-        <v>0.1913030911541753</v>
+        <v>0.166290372562834</v>
       </c>
       <c r="F10">
-        <v>3.177126618260132</v>
+        <v>1.893370861341026</v>
       </c>
       <c r="G10">
-        <v>0.0007226275367443076</v>
+        <v>0.002403462898412298</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.049915963616598</v>
+        <v>1.071598801724491</v>
       </c>
       <c r="J10">
-        <v>0.3462568387140266</v>
+        <v>0.2164273938263221</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>9.065077140350013</v>
+        <v>4.914571738137852</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.008428616968128466</v>
+        <v>0.006579646417637974</v>
       </c>
       <c r="D11">
-        <v>0.1009994930281053</v>
+        <v>0.1674044103069079</v>
       </c>
       <c r="E11">
-        <v>0.2044248548576917</v>
+        <v>0.1686163153965623</v>
       </c>
       <c r="F11">
-        <v>3.41611492078772</v>
+        <v>1.942170287001204</v>
       </c>
       <c r="G11">
-        <v>0.0007171442110392672</v>
+        <v>0.002400263057641723</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.207517218542066</v>
+        <v>1.104918649237192</v>
       </c>
       <c r="J11">
-        <v>0.3722491274678248</v>
+        <v>0.22154819456604</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>9.759041800641285</v>
+        <v>5.059543080872459</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.008607529192506291</v>
+        <v>0.006638316137816958</v>
       </c>
       <c r="D12">
-        <v>0.1026589863349656</v>
+        <v>0.1675624270675939</v>
       </c>
       <c r="E12">
-        <v>0.2094727047282845</v>
+        <v>0.1695103775833076</v>
       </c>
       <c r="F12">
-        <v>3.507931801680655</v>
+        <v>1.960812432054894</v>
       </c>
       <c r="G12">
-        <v>0.0007150771294545663</v>
+        <v>0.00239907436153706</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.268042134944963</v>
+        <v>1.11762906363505</v>
       </c>
       <c r="J12">
-        <v>0.3822432978934245</v>
+        <v>0.2235064070283386</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>10.02561864533766</v>
+        <v>5.114867506673932</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.00856896052831857</v>
+        <v>0.006625692435761721</v>
       </c>
       <c r="D13">
-        <v>0.1023001768123706</v>
+        <v>0.167527984882625</v>
       </c>
       <c r="E13">
-        <v>0.2083818709630663</v>
+        <v>0.1693172338602551</v>
       </c>
       <c r="F13">
-        <v>3.488095638093966</v>
+        <v>1.956790251411718</v>
       </c>
       <c r="G13">
-        <v>0.0007155219368795901</v>
+        <v>0.002399329347049469</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.254967373350283</v>
+        <v>1.114887503869923</v>
       </c>
       <c r="J13">
-        <v>0.3800837738810827</v>
+        <v>0.2230838201640353</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>9.968028840812906</v>
+        <v>5.102933359247345</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.008443319910249159</v>
+        <v>0.006584478562636775</v>
       </c>
       <c r="D14">
-        <v>0.1011353913048723</v>
+        <v>0.1674172254760649</v>
       </c>
       <c r="E14">
-        <v>0.2048384988340857</v>
+        <v>0.1686896039987644</v>
       </c>
       <c r="F14">
-        <v>3.423641218142137</v>
+        <v>1.943700717094629</v>
       </c>
       <c r="G14">
-        <v>0.000716973978080405</v>
+        <v>0.002400164802219066</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.212478970827078</v>
+        <v>1.105962476160215</v>
       </c>
       <c r="J14">
-        <v>0.3730681881836944</v>
+        <v>0.2217089147212761</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>9.780894020676385</v>
+        <v>5.064086078761079</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.008366465759678476</v>
+        <v>0.006559199093750578</v>
       </c>
       <c r="D15">
-        <v>0.1004259883485972</v>
+        <v>0.1673505840866483</v>
       </c>
       <c r="E15">
-        <v>0.202678688498537</v>
+        <v>0.1683068934385759</v>
       </c>
       <c r="F15">
-        <v>3.384338403655192</v>
+        <v>1.935704241955278</v>
       </c>
       <c r="G15">
-        <v>0.000717864537866332</v>
+        <v>0.002400679536398229</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.186567414436013</v>
+        <v>1.100507761758436</v>
       </c>
       <c r="J15">
-        <v>0.3687913344089111</v>
+        <v>0.2208692341137919</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>9.666778832012596</v>
+        <v>5.040346698035592</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.007927511176710311</v>
+        <v>0.00641379876855197</v>
       </c>
       <c r="D16">
-        <v>0.09642035148118566</v>
+        <v>0.1669871162197865</v>
       </c>
       <c r="E16">
-        <v>0.1904560047181363</v>
+        <v>0.1661402217915224</v>
       </c>
       <c r="F16">
-        <v>3.161681989588146</v>
+        <v>1.890204433495285</v>
       </c>
       <c r="G16">
-        <v>0.0007229873226615169</v>
+        <v>0.002403675242834219</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.03972771457839</v>
+        <v>1.069434230842447</v>
       </c>
       <c r="J16">
-        <v>0.3445781685995826</v>
+        <v>0.2160953989148879</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>9.020224264662204</v>
+        <v>4.905157075009072</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.007659395136883518</v>
+        <v>0.006324123084787914</v>
       </c>
       <c r="D17">
-        <v>0.09401356474388933</v>
+        <v>0.1667805881663753</v>
       </c>
       <c r="E17">
-        <v>0.1830868943701489</v>
+        <v>0.1648346298184933</v>
       </c>
       <c r="F17">
-        <v>3.027232415914284</v>
+        <v>1.862580661376484</v>
       </c>
       <c r="G17">
-        <v>0.0007261491547079878</v>
+        <v>0.002405554138076697</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.95101849134825</v>
+        <v>1.050536287986034</v>
       </c>
       <c r="J17">
-        <v>0.3299705946886604</v>
+        <v>0.2132006262025925</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>8.629737025193492</v>
+        <v>4.822979363760396</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.007505558512416854</v>
+        <v>0.006272368254670369</v>
       </c>
       <c r="D18">
-        <v>0.09264679546885191</v>
+        <v>0.1666678451968977</v>
       </c>
       <c r="E18">
-        <v>0.1788925745264933</v>
+        <v>0.1640923398405079</v>
       </c>
       <c r="F18">
-        <v>2.950630524986764</v>
+        <v>1.846798008239034</v>
       </c>
       <c r="G18">
-        <v>0.000727975523773434</v>
+        <v>0.002406649982815708</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.900462041602509</v>
+        <v>1.039726957704872</v>
       </c>
       <c r="J18">
-        <v>0.3216526510859978</v>
+        <v>0.2115480116453909</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>8.407232346872604</v>
+        <v>4.775989925992917</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.007453531975940564</v>
+        <v>0.006254814741289749</v>
       </c>
       <c r="D19">
-        <v>0.09218695229287732</v>
+        <v>0.1666307110545659</v>
       </c>
       <c r="E19">
-        <v>0.1774797461879132</v>
+        <v>0.1638424975403652</v>
       </c>
       <c r="F19">
-        <v>2.924814593606385</v>
+        <v>1.841472412555532</v>
       </c>
       <c r="G19">
-        <v>0.0007285953006310948</v>
+        <v>0.002407023623589373</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.88342126110409</v>
+        <v>1.036077431828176</v>
       </c>
       <c r="J19">
-        <v>0.318850157263995</v>
+        <v>0.2109905869807989</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>8.332240387438787</v>
+        <v>4.760127583089343</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.007687896416467055</v>
+        <v>0.006333687396491428</v>
       </c>
       <c r="D20">
-        <v>0.09426793251593324</v>
+        <v>0.1668019476872118</v>
       </c>
       <c r="E20">
-        <v>0.1838667035995272</v>
+        <v>0.164972716469471</v>
       </c>
       <c r="F20">
-        <v>3.041468000912033</v>
+        <v>1.865510300207319</v>
       </c>
       <c r="G20">
-        <v>0.0007258117842793558</v>
+        <v>0.002405352559034651</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.960412614998177</v>
+        <v>1.052541763386913</v>
       </c>
       <c r="J20">
-        <v>0.3315167636373815</v>
+        <v>0.2135074971418334</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003280837</v>
       </c>
       <c r="O20">
-        <v>8.671084754069682</v>
+        <v>4.831698627653395</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.008480201528286102</v>
+        <v>0.006596591322274747</v>
       </c>
       <c r="D21">
-        <v>0.1014766641973566</v>
+        <v>0.1674495077245268</v>
       </c>
       <c r="E21">
-        <v>0.2058770422011094</v>
+        <v>0.168873593295487</v>
       </c>
       <c r="F21">
-        <v>3.442535717124315</v>
+        <v>1.947541001679895</v>
       </c>
       <c r="G21">
-        <v>0.0007165472446870695</v>
+        <v>0.002399918785288443</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.22493488996804</v>
+        <v>1.108581445382029</v>
       </c>
       <c r="J21">
-        <v>0.3751245439719071</v>
+        <v>0.2221122388767611</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571254</v>
       </c>
       <c r="O21">
-        <v>9.835752655354952</v>
+        <v>5.075484852666364</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.009002544228476239</v>
+        <v>0.006766856577542057</v>
       </c>
       <c r="D22">
-        <v>0.1063669678875101</v>
+        <v>0.1679265272181212</v>
       </c>
       <c r="E22">
-        <v>0.2207278809465194</v>
+        <v>0.1715004631242394</v>
       </c>
       <c r="F22">
-        <v>3.712437093440258</v>
+        <v>2.002102616583727</v>
       </c>
       <c r="G22">
-        <v>0.000710545463882197</v>
+        <v>0.002396501587220851</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.40280628890099</v>
+        <v>1.145748539673903</v>
       </c>
       <c r="J22">
-        <v>0.4045193642391069</v>
+        <v>0.2278471959355812</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
-        <v>10.61930708427468</v>
+        <v>5.237303306422689</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.008723284886883675</v>
+        <v>0.00667612497350234</v>
       </c>
       <c r="D23">
-        <v>0.1037393631589723</v>
+        <v>0.1676670120150376</v>
       </c>
       <c r="E23">
-        <v>0.212755315527815</v>
+        <v>0.1700913507559534</v>
       </c>
       <c r="F23">
-        <v>3.56760682207468</v>
+        <v>1.97289477741046</v>
       </c>
       <c r="G23">
-        <v>0.0007137447012834987</v>
+        <v>0.002398313182588902</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.307372705115128</v>
+        <v>1.125861919307937</v>
       </c>
       <c r="J23">
-        <v>0.3887412476270811</v>
+        <v>0.2247761122314671</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
-        <v>10.19886652046341</v>
+        <v>5.150708771068309</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.007675010044476238</v>
+        <v>0.006329363991838477</v>
       </c>
       <c r="D24">
-        <v>0.09415288037102698</v>
+        <v>0.1667922723812225</v>
       </c>
       <c r="E24">
-        <v>0.1835140209195387</v>
+        <v>0.1649102616081919</v>
       </c>
       <c r="F24">
-        <v>3.035029941841998</v>
+        <v>1.864185503376831</v>
       </c>
       <c r="G24">
-        <v>0.0007259642824737131</v>
+        <v>0.002405443644082295</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.956164158613333</v>
+        <v>1.051634915608886</v>
       </c>
       <c r="J24">
-        <v>0.3308174925771397</v>
+        <v>0.2133687245810449</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>8.652385281880925</v>
+        <v>4.827755852455084</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.006558157153605748</v>
+        <v>0.00594860138151887</v>
       </c>
       <c r="D25">
-        <v>0.0844732165690445</v>
+        <v>0.166079915444044</v>
       </c>
       <c r="E25">
-        <v>0.1536306657293984</v>
+        <v>0.1596521609232973</v>
       </c>
       <c r="F25">
-        <v>2.487908474482737</v>
+        <v>1.750965426991968</v>
       </c>
       <c r="G25">
-        <v>0.0007394491342950227</v>
+        <v>0.002413714909989206</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.594809637393851</v>
+        <v>0.9738698291636183</v>
       </c>
       <c r="J25">
-        <v>0.271482776086458</v>
+        <v>0.2015367754054154</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>7.062657127029865</v>
+        <v>4.489974540659034</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.005662360753353468</v>
+        <v>0.005742279831299157</v>
       </c>
       <c r="D2">
-        <v>0.1657542215531862</v>
+        <v>0.0778097649676539</v>
       </c>
       <c r="E2">
-        <v>0.1560617972850373</v>
+        <v>0.1327232834363627</v>
       </c>
       <c r="F2">
-        <v>1.671014047417117</v>
+        <v>2.102741431396908</v>
       </c>
       <c r="G2">
-        <v>0.002420309550770803</v>
+        <v>0.0007497140633483591</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9185472614003345</v>
+        <v>1.339969740891632</v>
       </c>
       <c r="J2">
-        <v>0.1932238490453386</v>
+        <v>0.2298299464142417</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696344</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>4.250172472561133</v>
+        <v>5.942535182792483</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005464652714179508</v>
+        <v>0.005191033890259433</v>
       </c>
       <c r="D3">
-        <v>0.1656575482198335</v>
+        <v>0.07353815730570545</v>
       </c>
       <c r="E3">
-        <v>0.1538024989725777</v>
+        <v>0.1190968390018945</v>
       </c>
       <c r="F3">
-        <v>1.618929075160096</v>
+        <v>1.850252177029333</v>
       </c>
       <c r="G3">
-        <v>0.002425096453804731</v>
+        <v>0.0007569124193131938</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8822415908493184</v>
+        <v>1.172644208695559</v>
       </c>
       <c r="J3">
-        <v>0.1878352636291609</v>
+        <v>0.2025863674039243</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679454</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>4.09312108477036</v>
+        <v>5.207612990269183</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.005341410750705933</v>
+        <v>0.004852714876740549</v>
       </c>
       <c r="D4">
-        <v>0.1656594146240096</v>
+        <v>0.07102275159603266</v>
       </c>
       <c r="E4">
-        <v>0.15250064878731</v>
+        <v>0.1109569719955772</v>
       </c>
       <c r="F4">
-        <v>1.587975245859468</v>
+        <v>1.698716305885483</v>
       </c>
       <c r="G4">
-        <v>0.002428193274214087</v>
+        <v>0.0007614608558782296</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.860529189211249</v>
+        <v>1.07209095289457</v>
       </c>
       <c r="J4">
-        <v>0.1846464827536138</v>
+        <v>0.186262120638446</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375761</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>3.999359741489343</v>
+        <v>4.766206282934547</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.005290722662971703</v>
+        <v>0.004714793477988977</v>
       </c>
       <c r="D5">
-        <v>0.1656755819618994</v>
+        <v>0.0700229323745063</v>
       </c>
       <c r="E5">
-        <v>0.1519915571079054</v>
+        <v>0.1076914365716668</v>
       </c>
       <c r="F5">
-        <v>1.575618501119649</v>
+        <v>1.63774572950004</v>
       </c>
       <c r="G5">
-        <v>0.00242949502869159</v>
+        <v>0.000763347993790712</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8518262437820994</v>
+        <v>1.031600981391804</v>
       </c>
       <c r="J5">
-        <v>0.1833770359118958</v>
+        <v>0.1797001995644649</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>3.961819388656693</v>
+        <v>4.588521235635369</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.005282277766172072</v>
+        <v>0.004691885967480047</v>
       </c>
       <c r="D6">
-        <v>0.1656791974117198</v>
+        <v>0.06985838763384322</v>
       </c>
       <c r="E6">
-        <v>0.1519083154531558</v>
+        <v>0.1071521559909527</v>
       </c>
       <c r="F6">
-        <v>1.573582179559622</v>
+        <v>1.627666123708451</v>
       </c>
       <c r="G6">
-        <v>0.002429713590488196</v>
+        <v>0.0007636634172972808</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8503898667386096</v>
+        <v>1.024905269757184</v>
       </c>
       <c r="J6">
-        <v>0.1831680539588589</v>
+        <v>0.1786157460822437</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>3.955626111343065</v>
+        <v>4.559141319111518</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.005340729042476511</v>
+        <v>0.004850855152849221</v>
       </c>
       <c r="D7">
-        <v>0.1656595702656389</v>
+        <v>0.07100916777808663</v>
       </c>
       <c r="E7">
-        <v>0.1524936963151653</v>
+        <v>0.1109127301850172</v>
       </c>
       <c r="F7">
-        <v>1.587807558372148</v>
+        <v>1.697890993610685</v>
       </c>
       <c r="G7">
-        <v>0.002428210668750603</v>
+        <v>0.0007614861688176674</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.860411231891959</v>
+        <v>1.071543001909987</v>
       </c>
       <c r="J7">
-        <v>0.1846292412152337</v>
+        <v>0.1861732725177916</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>3.998850757741138</v>
+        <v>4.763801442582292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.005594573897214516</v>
+        <v>0.00555212237690661</v>
       </c>
       <c r="D8">
-        <v>0.1657081878803552</v>
+        <v>0.07631351741942893</v>
       </c>
       <c r="E8">
-        <v>0.1552650454768632</v>
+        <v>0.1279743491417555</v>
       </c>
       <c r="F8">
-        <v>1.65284149624074</v>
+        <v>2.01489715758585</v>
       </c>
       <c r="G8">
-        <v>0.002421927437248006</v>
+        <v>0.0007521701574060897</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9059083892653348</v>
+        <v>1.281782640556628</v>
       </c>
       <c r="J8">
-        <v>0.1913409155047248</v>
+        <v>0.2203456576905154</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209654</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>4.195465394021312</v>
+        <v>5.686914776933293</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.006077769785910903</v>
+        <v>0.006933029546075886</v>
       </c>
       <c r="D9">
-        <v>0.16628899260526</v>
+        <v>0.08765532632355644</v>
       </c>
       <c r="E9">
-        <v>0.1613794864529368</v>
+        <v>0.1635063726218675</v>
       </c>
       <c r="F9">
-        <v>1.788569721226452</v>
+        <v>2.669101702893784</v>
       </c>
       <c r="G9">
-        <v>0.002410850731554764</v>
+        <v>0.0007348591454863306</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9997616778198903</v>
+        <v>1.71455447789026</v>
       </c>
       <c r="J9">
-        <v>0.2054599256648686</v>
+        <v>0.2911124238377738</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
-        <v>4.602361170041831</v>
+        <v>7.589284048643833</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.006424007598560877</v>
+        <v>0.007958159863420633</v>
       </c>
       <c r="D10">
-        <v>0.1670115016796458</v>
+        <v>0.09669743349422077</v>
       </c>
       <c r="E10">
-        <v>0.166290372562834</v>
+        <v>0.1913030911542108</v>
       </c>
       <c r="F10">
-        <v>1.893370861341026</v>
+        <v>3.177126618260132</v>
       </c>
       <c r="G10">
-        <v>0.002403462898412298</v>
+        <v>0.0007226275366892945</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.071598801724491</v>
+        <v>2.049915963616598</v>
       </c>
       <c r="J10">
-        <v>0.2164273938263221</v>
+        <v>0.3462568387140408</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837536</v>
       </c>
       <c r="O10">
-        <v>4.914571738137852</v>
+        <v>9.06507714035007</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.006579646417637974</v>
+        <v>0.008428616968348734</v>
       </c>
       <c r="D11">
-        <v>0.1674044103069079</v>
+        <v>0.100999493027885</v>
       </c>
       <c r="E11">
-        <v>0.1686163153965623</v>
+        <v>0.2044248548576348</v>
       </c>
       <c r="F11">
-        <v>1.942170287001204</v>
+        <v>3.416114920787692</v>
       </c>
       <c r="G11">
-        <v>0.002400263057641723</v>
+        <v>0.0007171442110357501</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.104918649237192</v>
+        <v>2.20751721854208</v>
       </c>
       <c r="J11">
-        <v>0.22154819456604</v>
+        <v>0.3722491274678532</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731763</v>
       </c>
       <c r="O11">
-        <v>5.059543080872459</v>
+        <v>9.759041800641228</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.006638316137816958</v>
+        <v>0.008607529191827723</v>
       </c>
       <c r="D12">
-        <v>0.1675624270675939</v>
+        <v>0.1026589863350864</v>
       </c>
       <c r="E12">
-        <v>0.1695103775833076</v>
+        <v>0.2094727047282561</v>
       </c>
       <c r="F12">
-        <v>1.960812432054894</v>
+        <v>3.507931801680655</v>
       </c>
       <c r="G12">
-        <v>0.00239907436153706</v>
+        <v>0.0007150771293399912</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.11762906363505</v>
+        <v>2.268042134944963</v>
       </c>
       <c r="J12">
-        <v>0.2235064070283386</v>
+        <v>0.3822432978933108</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>5.114867506673932</v>
+        <v>10.02561864533766</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.006625692435761721</v>
+        <v>0.008568960528560154</v>
       </c>
       <c r="D13">
-        <v>0.167527984882625</v>
+        <v>0.1023001768121503</v>
       </c>
       <c r="E13">
-        <v>0.1693172338602551</v>
+        <v>0.2083818709631018</v>
       </c>
       <c r="F13">
-        <v>1.956790251411718</v>
+        <v>3.488095638093966</v>
       </c>
       <c r="G13">
-        <v>0.002399329347049469</v>
+        <v>0.0007155219368799205</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.114887503869923</v>
+        <v>2.254967373350269</v>
       </c>
       <c r="J13">
-        <v>0.2230838201640353</v>
+        <v>0.380083773881168</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>5.102933359247345</v>
+        <v>9.968028840812906</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.006584478562636775</v>
+        <v>0.008443319910245606</v>
       </c>
       <c r="D14">
-        <v>0.1674172254760649</v>
+        <v>0.1011353913049859</v>
       </c>
       <c r="E14">
-        <v>0.1686896039987644</v>
+        <v>0.2048384988341141</v>
       </c>
       <c r="F14">
-        <v>1.943700717094629</v>
+        <v>3.423641218142109</v>
       </c>
       <c r="G14">
-        <v>0.002400164802219066</v>
+        <v>0.000716973977911498</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.105962476160215</v>
+        <v>2.212478970827078</v>
       </c>
       <c r="J14">
-        <v>0.2217089147212761</v>
+        <v>0.3730681881837654</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>5.064086078761079</v>
+        <v>9.780894020676442</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.006559199093750578</v>
+        <v>0.008366465759674924</v>
       </c>
       <c r="D15">
-        <v>0.1673505840866483</v>
+        <v>0.1004259883485972</v>
       </c>
       <c r="E15">
-        <v>0.1683068934385759</v>
+        <v>0.202678688498537</v>
       </c>
       <c r="F15">
-        <v>1.935704241955278</v>
+        <v>3.384338403655164</v>
       </c>
       <c r="G15">
-        <v>0.002400679536398229</v>
+        <v>0.0007178645377525678</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.100507761758436</v>
+        <v>2.186567414436013</v>
       </c>
       <c r="J15">
-        <v>0.2208692341137919</v>
+        <v>0.3687913344088543</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>5.040346698035592</v>
+        <v>9.666778832012653</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.00641379876855197</v>
+        <v>0.007927511176930579</v>
       </c>
       <c r="D16">
-        <v>0.1669871162197865</v>
+        <v>0.09642035148119987</v>
       </c>
       <c r="E16">
-        <v>0.1661402217915224</v>
+        <v>0.1904560047181363</v>
       </c>
       <c r="F16">
-        <v>1.890204433495285</v>
+        <v>3.161681989588118</v>
       </c>
       <c r="G16">
-        <v>0.002403675242834219</v>
+        <v>0.0007229873225518724</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.069434230842447</v>
+        <v>2.039727714578405</v>
       </c>
       <c r="J16">
-        <v>0.2160953989148879</v>
+        <v>0.3445781685995826</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>4.905157075009072</v>
+        <v>9.020224264662204</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.006324123084787914</v>
+        <v>0.007659395137103786</v>
       </c>
       <c r="D17">
-        <v>0.1667805881663753</v>
+        <v>0.09401356474399591</v>
       </c>
       <c r="E17">
-        <v>0.1648346298184933</v>
+        <v>0.183086894370156</v>
       </c>
       <c r="F17">
-        <v>1.862580661376484</v>
+        <v>3.027232415914284</v>
       </c>
       <c r="G17">
-        <v>0.002405554138076697</v>
+        <v>0.0007261491547093657</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.050536287986034</v>
+        <v>1.95101849134825</v>
       </c>
       <c r="J17">
-        <v>0.2132006262025925</v>
+        <v>0.329970594688703</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>4.822979363760396</v>
+        <v>8.629737025193435</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.006272368254670369</v>
+        <v>0.007505558512857391</v>
       </c>
       <c r="D18">
-        <v>0.1666678451968977</v>
+        <v>0.09264679546883059</v>
       </c>
       <c r="E18">
-        <v>0.1640923398405079</v>
+        <v>0.1788925745264578</v>
       </c>
       <c r="F18">
-        <v>1.846798008239034</v>
+        <v>2.950630524986764</v>
       </c>
       <c r="G18">
-        <v>0.002406649982815708</v>
+        <v>0.0007279755239393282</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.039726957704872</v>
+        <v>1.900462041602523</v>
       </c>
       <c r="J18">
-        <v>0.2115480116453909</v>
+        <v>0.3216526510859552</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>4.775989925992917</v>
+        <v>8.407232346872604</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.006254814741289749</v>
+        <v>0.007453531975937011</v>
       </c>
       <c r="D19">
-        <v>0.1666307110545659</v>
+        <v>0.09218695229299101</v>
       </c>
       <c r="E19">
-        <v>0.1638424975403652</v>
+        <v>0.1774797461879984</v>
       </c>
       <c r="F19">
-        <v>1.841472412555532</v>
+        <v>2.924814593606357</v>
       </c>
       <c r="G19">
-        <v>0.002407023623589373</v>
+        <v>0.0007285953006302736</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.036077431828176</v>
+        <v>1.883421261104104</v>
       </c>
       <c r="J19">
-        <v>0.2109905869807989</v>
+        <v>0.3188501572638671</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>4.760127583089343</v>
+        <v>8.332240387438844</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.006333687396491428</v>
+        <v>0.007687896416697981</v>
       </c>
       <c r="D20">
-        <v>0.1668019476872118</v>
+        <v>0.09426793251593324</v>
       </c>
       <c r="E20">
-        <v>0.164972716469471</v>
+        <v>0.1838667035995769</v>
       </c>
       <c r="F20">
-        <v>1.865510300207319</v>
+        <v>3.041468000912033</v>
       </c>
       <c r="G20">
-        <v>0.002405352559034651</v>
+        <v>0.0007258117842222439</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.052541763386913</v>
+        <v>1.960412614998162</v>
       </c>
       <c r="J20">
-        <v>0.2135074971418334</v>
+        <v>0.3315167636373388</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003280837</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>4.831698627653395</v>
+        <v>8.671084754069739</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.006596591322274747</v>
+        <v>0.00848020152779938</v>
       </c>
       <c r="D21">
-        <v>0.1674495077245268</v>
+        <v>0.1014766641972287</v>
       </c>
       <c r="E21">
-        <v>0.168873593295487</v>
+        <v>0.2058770422011307</v>
       </c>
       <c r="F21">
-        <v>1.947541001679895</v>
+        <v>3.442535717124315</v>
       </c>
       <c r="G21">
-        <v>0.002399918785288443</v>
+        <v>0.0007165472446861919</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.108581445382029</v>
+        <v>2.22493488996804</v>
       </c>
       <c r="J21">
-        <v>0.2221122388767611</v>
+        <v>0.3751245439718787</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571254</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>5.075484852666364</v>
+        <v>9.835752655355009</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.006766856577542057</v>
+        <v>0.009002544228479792</v>
       </c>
       <c r="D22">
-        <v>0.1679265272181212</v>
+        <v>0.1063669678873751</v>
       </c>
       <c r="E22">
-        <v>0.1715004631242394</v>
+        <v>0.220727880946491</v>
       </c>
       <c r="F22">
-        <v>2.002102616583727</v>
+        <v>3.712437093440258</v>
       </c>
       <c r="G22">
-        <v>0.002396501587220851</v>
+        <v>0.0007105454638212809</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.145748539673903</v>
+        <v>2.40280628890099</v>
       </c>
       <c r="J22">
-        <v>0.2278471959355812</v>
+        <v>0.4045193642389506</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>5.237303306422689</v>
+        <v>10.61930708427468</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.00667612497350234</v>
+        <v>0.00872328488687657</v>
       </c>
       <c r="D23">
-        <v>0.1676670120150376</v>
+        <v>0.1037393631589794</v>
       </c>
       <c r="E23">
-        <v>0.1700913507559534</v>
+        <v>0.2127553155277795</v>
       </c>
       <c r="F23">
-        <v>1.97289477741046</v>
+        <v>3.56760682207468</v>
       </c>
       <c r="G23">
-        <v>0.002398313182588902</v>
+        <v>0.0007137447011684728</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.125861919307937</v>
+        <v>2.307372705115142</v>
       </c>
       <c r="J23">
-        <v>0.2247761122314671</v>
+        <v>0.388741247626939</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>5.150708771068309</v>
+        <v>10.19886652046335</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.006329363991838477</v>
+        <v>0.007675010044479791</v>
       </c>
       <c r="D24">
-        <v>0.1667922723812225</v>
+        <v>0.09415288037077829</v>
       </c>
       <c r="E24">
-        <v>0.1649102616081919</v>
+        <v>0.1835140209194961</v>
       </c>
       <c r="F24">
-        <v>1.864185503376831</v>
+        <v>3.035029941842026</v>
       </c>
       <c r="G24">
-        <v>0.002405443644082295</v>
+        <v>0.0007259642824724134</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.051634915608886</v>
+        <v>1.956164158613333</v>
       </c>
       <c r="J24">
-        <v>0.2133687245810449</v>
+        <v>0.3308174925770544</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>4.827755852455084</v>
+        <v>8.652385281880981</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.00594860138151887</v>
+        <v>0.006558157153609301</v>
       </c>
       <c r="D25">
-        <v>0.166079915444044</v>
+        <v>0.08447321656926476</v>
       </c>
       <c r="E25">
-        <v>0.1596521609232973</v>
+        <v>0.1536306657294055</v>
       </c>
       <c r="F25">
-        <v>1.750965426991968</v>
+        <v>2.487908474482708</v>
       </c>
       <c r="G25">
-        <v>0.002413714909989206</v>
+        <v>0.0007394491342396129</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9738698291636183</v>
+        <v>1.594809637393851</v>
       </c>
       <c r="J25">
-        <v>0.2015367754054154</v>
+        <v>0.2714827760864438</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>4.489974540659034</v>
+        <v>7.062657127029809</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.005742279831299157</v>
+        <v>0.06882837269067466</v>
       </c>
       <c r="D2">
-        <v>0.0778097649676539</v>
+        <v>0.06253029908317131</v>
       </c>
       <c r="E2">
-        <v>0.1327232834363627</v>
+        <v>0.2868475322924056</v>
       </c>
       <c r="F2">
-        <v>2.102741431396908</v>
+        <v>0.4091443360971709</v>
       </c>
       <c r="G2">
-        <v>0.0007497140633483591</v>
+        <v>0.3022210689452152</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001476986196929486</v>
       </c>
       <c r="I2">
-        <v>1.339969740891632</v>
+        <v>0.01369023602086816</v>
       </c>
       <c r="J2">
-        <v>0.2298299464142417</v>
+        <v>0.2528257197244059</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.32014732229608</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.288017273549059</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.942535182792483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8502445296874441</v>
+      </c>
+      <c r="P2">
+        <v>0.8643103304797179</v>
+      </c>
+      <c r="Q2">
+        <v>1.119665387460131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005191033890259433</v>
+        <v>0.06082159060497361</v>
       </c>
       <c r="D3">
-        <v>0.07353815730570545</v>
+        <v>0.05524981171456744</v>
       </c>
       <c r="E3">
-        <v>0.1190968390018945</v>
+        <v>0.2567622821221747</v>
       </c>
       <c r="F3">
-        <v>1.850252177029333</v>
+        <v>0.3789711582574</v>
       </c>
       <c r="G3">
-        <v>0.0007569124193131938</v>
+        <v>0.2808304278531608</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000683532499539341</v>
       </c>
       <c r="I3">
-        <v>1.172644208695559</v>
+        <v>0.01090106043110017</v>
       </c>
       <c r="J3">
-        <v>0.2025863674039243</v>
+        <v>0.2465406220574735</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3003242570785645</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.000302051946136</v>
       </c>
       <c r="N3">
-        <v>6.749683652115209</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5.207612990269183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7411502189458119</v>
+      </c>
+      <c r="P3">
+        <v>0.8558988209966003</v>
+      </c>
+      <c r="Q3">
+        <v>1.0608949355303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.004852714876740549</v>
+        <v>0.05575278652401749</v>
       </c>
       <c r="D4">
-        <v>0.07102275159603266</v>
+        <v>0.0507831188473844</v>
       </c>
       <c r="E4">
-        <v>0.1109569719955772</v>
+        <v>0.2382835902346585</v>
       </c>
       <c r="F4">
-        <v>1.698716305885483</v>
+        <v>0.3608008080606311</v>
       </c>
       <c r="G4">
-        <v>0.0007614608558782296</v>
+        <v>0.2679672192237206</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0003357224796534108</v>
       </c>
       <c r="I4">
-        <v>1.07209095289457</v>
+        <v>0.009312356621797413</v>
       </c>
       <c r="J4">
-        <v>0.186262120638446</v>
+        <v>0.2428857905464241</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.288258116956964</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.82287945846042</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4.766206282934547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6740679893736257</v>
+      </c>
+      <c r="P4">
+        <v>0.8513446635410844</v>
+      </c>
+      <c r="Q4">
+        <v>1.025803733515474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.004714793477988977</v>
+        <v>0.05329694443726396</v>
       </c>
       <c r="D5">
-        <v>0.0700229323745063</v>
+        <v>0.0490119126828148</v>
       </c>
       <c r="E5">
-        <v>0.1076914365716668</v>
+        <v>0.2307797690532922</v>
       </c>
       <c r="F5">
-        <v>1.63774572950004</v>
+        <v>0.3531501125194794</v>
       </c>
       <c r="G5">
-        <v>0.000763347993790712</v>
+        <v>0.2624594000025695</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0002266195799234261</v>
       </c>
       <c r="I5">
-        <v>1.031600981391804</v>
+        <v>0.008738506150586911</v>
       </c>
       <c r="J5">
-        <v>0.1797001995644649</v>
+        <v>0.2412782165715441</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2829071349659031</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.749691985174167</v>
       </c>
       <c r="N5">
-        <v>5.958052239810399</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>4.588521235635369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6465868982680902</v>
+      </c>
+      <c r="P5">
+        <v>0.8498978911723185</v>
+      </c>
+      <c r="Q5">
+        <v>1.010690235953192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.004691885967480047</v>
+        <v>0.05245741810447413</v>
       </c>
       <c r="D6">
-        <v>0.06985838763384322</v>
+        <v>0.04877734128842093</v>
       </c>
       <c r="E6">
-        <v>0.1071521559909527</v>
+        <v>0.2295710332203882</v>
       </c>
       <c r="F6">
-        <v>1.627666123708451</v>
+        <v>0.3514809652864201</v>
       </c>
       <c r="G6">
-        <v>0.0007636634172972808</v>
+        <v>0.261145989205275</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0002100638002473509</v>
       </c>
       <c r="I6">
-        <v>1.024905269757184</v>
+        <v>0.008707095134382392</v>
       </c>
       <c r="J6">
-        <v>0.1786157460822437</v>
+        <v>0.2408094344470229</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.28146013693123</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.736680968970035</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>4.559141319111518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6418800704960788</v>
+      </c>
+      <c r="P6">
+        <v>0.8499859754560362</v>
+      </c>
+      <c r="Q6">
+        <v>1.006911962530893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.004850855152849221</v>
+        <v>0.05453973508655707</v>
       </c>
       <c r="D7">
-        <v>0.07100916777808663</v>
+        <v>0.0509222975711765</v>
       </c>
       <c r="E7">
-        <v>0.1109127301850172</v>
+        <v>0.2382856651403387</v>
       </c>
       <c r="F7">
-        <v>1.697890993610685</v>
+        <v>0.3595931013897982</v>
       </c>
       <c r="G7">
-        <v>0.0007614861688176674</v>
+        <v>0.2667914795937278</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0003328159654423235</v>
       </c>
       <c r="I7">
-        <v>1.071543001909987</v>
+        <v>0.00945998028671724</v>
       </c>
       <c r="J7">
-        <v>0.1861732725177916</v>
+        <v>0.2423045044750225</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2866536872519205</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.819572853903452</v>
       </c>
       <c r="N7">
-        <v>6.184389112219662</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>4.763801442582292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.673308826355516</v>
+      </c>
+      <c r="P7">
+        <v>0.8522062169956683</v>
+      </c>
+      <c r="Q7">
+        <v>1.022092066803495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.00555212237690661</v>
+        <v>0.06451973944120937</v>
       </c>
       <c r="D8">
-        <v>0.07631351741942893</v>
+        <v>0.06023707987414184</v>
       </c>
       <c r="E8">
-        <v>0.1279743491417555</v>
+        <v>0.2766128497959031</v>
       </c>
       <c r="F8">
-        <v>2.01489715758585</v>
+        <v>0.3971955424528417</v>
       </c>
       <c r="G8">
-        <v>0.0007521701574060897</v>
+        <v>0.2933227580960533</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001170105269312716</v>
       </c>
       <c r="I8">
-        <v>1.281782640556628</v>
+        <v>0.01288201041413028</v>
       </c>
       <c r="J8">
-        <v>0.2203456576905154</v>
+        <v>0.2498744120582259</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.311252021201188</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.185864334850436</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>5.686914776933293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.8121257330108875</v>
+      </c>
+      <c r="P8">
+        <v>0.8624860332782518</v>
+      </c>
+      <c r="Q8">
+        <v>1.09453137599921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.006933029546075886</v>
+        <v>0.0849915743380194</v>
       </c>
       <c r="D9">
-        <v>0.08765532632355644</v>
+        <v>0.07825782432330186</v>
       </c>
       <c r="E9">
-        <v>0.1635063726218675</v>
+        <v>0.3516632061264175</v>
       </c>
       <c r="F9">
-        <v>2.669101702893784</v>
+        <v>0.4760179048338102</v>
       </c>
       <c r="G9">
-        <v>0.0007348591454863306</v>
+        <v>0.3497126362270961</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.004020770489251868</v>
       </c>
       <c r="I9">
-        <v>1.71455447789026</v>
+        <v>0.02046547973917789</v>
       </c>
       <c r="J9">
-        <v>0.2911124238377738</v>
+        <v>0.2674421049579792</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.363197848713888</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.902487418263689</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>7.589284048643833</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.08448527177044</v>
+      </c>
+      <c r="P9">
+        <v>0.8860751437782852</v>
+      </c>
+      <c r="Q9">
+        <v>1.251476446677941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.007958159863420633</v>
+        <v>0.09910749068602343</v>
       </c>
       <c r="D10">
-        <v>0.09669743349422077</v>
+        <v>0.09242273558997738</v>
       </c>
       <c r="E10">
-        <v>0.1913030911542108</v>
+        <v>0.379492451010627</v>
       </c>
       <c r="F10">
-        <v>3.177126618260132</v>
+        <v>0.5305430292794284</v>
       </c>
       <c r="G10">
-        <v>0.0007226275366892945</v>
+        <v>0.3872861898894371</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.006854315221391794</v>
       </c>
       <c r="I10">
-        <v>2.049915963616598</v>
+        <v>0.02684731672164631</v>
       </c>
       <c r="J10">
-        <v>0.3462568387140408</v>
+        <v>0.2787201397480743</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3974961925737972</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.427245965677855</v>
       </c>
       <c r="N10">
-        <v>11.28258838837536</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>9.06507714035007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.246875318667037</v>
+      </c>
+      <c r="P10">
+        <v>0.915536881008677</v>
+      </c>
+      <c r="Q10">
+        <v>1.355160218641913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.008428616968348734</v>
+        <v>0.1077124856068252</v>
       </c>
       <c r="D11">
-        <v>0.100999493027885</v>
+        <v>0.1062360892908458</v>
       </c>
       <c r="E11">
-        <v>0.2044248548576348</v>
+        <v>0.1972937945442226</v>
       </c>
       <c r="F11">
-        <v>3.416114920787692</v>
+        <v>0.5099152069971638</v>
       </c>
       <c r="G11">
-        <v>0.0007171442110357501</v>
+        <v>0.3594964034680288</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02442657968766326</v>
       </c>
       <c r="I11">
-        <v>2.20751721854208</v>
+        <v>0.02940893090073615</v>
       </c>
       <c r="J11">
-        <v>0.3722491274678532</v>
+        <v>0.2613394135492371</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3777006806815209</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.685758529729867</v>
       </c>
       <c r="N11">
-        <v>12.03742316731763</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>9.759041800641228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.012112093209765</v>
+      </c>
+      <c r="P11">
+        <v>1.00874758906825</v>
+      </c>
+      <c r="Q11">
+        <v>1.260017372375728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.008607529191827723</v>
+        <v>0.1143622622369094</v>
       </c>
       <c r="D12">
-        <v>0.1026589863350864</v>
+        <v>0.1150237148544448</v>
       </c>
       <c r="E12">
-        <v>0.2094727047282561</v>
+        <v>0.09758040885932573</v>
       </c>
       <c r="F12">
-        <v>3.507931801680655</v>
+        <v>0.4826678355955636</v>
       </c>
       <c r="G12">
-        <v>0.0007150771293399912</v>
+        <v>0.3303928466027486</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06222258440038075</v>
       </c>
       <c r="I12">
-        <v>2.268042134944963</v>
+        <v>0.02999200074464525</v>
       </c>
       <c r="J12">
-        <v>0.3822432978933108</v>
+        <v>0.2452357292232108</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3562908284841484</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.798408518132874</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.02561864533766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.8035289195040534</v>
+      </c>
+      <c r="P12">
+        <v>1.086925737912495</v>
+      </c>
+      <c r="Q12">
+        <v>1.16466017876138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.008568960528560154</v>
+        <v>0.1179612821575944</v>
       </c>
       <c r="D13">
-        <v>0.1023001768121503</v>
+        <v>0.1206181804499096</v>
       </c>
       <c r="E13">
-        <v>0.2083818709631018</v>
+        <v>0.05474994406590761</v>
       </c>
       <c r="F13">
-        <v>3.488095638093966</v>
+        <v>0.4469167022761908</v>
       </c>
       <c r="G13">
-        <v>0.0007155219368799205</v>
+        <v>0.2968099791816599</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1170784791738129</v>
       </c>
       <c r="I13">
-        <v>2.254967373350269</v>
+        <v>0.02928193199652984</v>
       </c>
       <c r="J13">
-        <v>0.380083773881168</v>
+        <v>0.2282486711686431</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3299573875646615</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.800663666742821</v>
       </c>
       <c r="N13">
-        <v>12.26155457991871</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.968028840812906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.603527309423157</v>
+      </c>
+      <c r="P13">
+        <v>1.157961170532872</v>
+      </c>
+      <c r="Q13">
+        <v>1.057880264505343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.008443319910245606</v>
+        <v>0.1187103903001514</v>
       </c>
       <c r="D14">
-        <v>0.1011353913049859</v>
+        <v>0.1231450227240884</v>
       </c>
       <c r="E14">
-        <v>0.2048384988341141</v>
+        <v>0.05808923475698435</v>
       </c>
       <c r="F14">
-        <v>3.423641218142109</v>
+        <v>0.4179645509944336</v>
       </c>
       <c r="G14">
-        <v>0.000716973977911498</v>
+        <v>0.2712746168141891</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1658303642745977</v>
       </c>
       <c r="I14">
-        <v>2.212478970827078</v>
+        <v>0.02827628935891191</v>
       </c>
       <c r="J14">
-        <v>0.3730681881837654</v>
+        <v>0.2159218338622892</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3090551742129506</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.751447948582609</v>
       </c>
       <c r="N14">
-        <v>12.06092695796548</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.780894020676442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4716674296869101</v>
+      </c>
+      <c r="P14">
+        <v>1.204960660999674</v>
+      </c>
+      <c r="Q14">
+        <v>0.9778884805538439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.008366465759674924</v>
+        <v>0.1176339439660694</v>
       </c>
       <c r="D15">
-        <v>0.1004259883485972</v>
+        <v>0.1230942574151612</v>
       </c>
       <c r="E15">
-        <v>0.202678688498537</v>
+        <v>0.06312600324619666</v>
       </c>
       <c r="F15">
-        <v>3.384338403655164</v>
+        <v>0.4087641651733662</v>
       </c>
       <c r="G15">
-        <v>0.0007178645377525678</v>
+        <v>0.2637102206353106</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1781245974268444</v>
       </c>
       <c r="I15">
-        <v>2.186567414436013</v>
+        <v>0.02782771264207273</v>
       </c>
       <c r="J15">
-        <v>0.3687913344088543</v>
+        <v>0.2125555119363156</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.302407708798512</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.71465785825967</v>
       </c>
       <c r="N15">
-        <v>11.93801081193834</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>9.666778832012653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4386377186430366</v>
+      </c>
+      <c r="P15">
+        <v>1.214216668142484</v>
+      </c>
+      <c r="Q15">
+        <v>0.9547741128928635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.007927511176930579</v>
+        <v>0.1099519145775645</v>
       </c>
       <c r="D16">
-        <v>0.09642035148119987</v>
+        <v>0.1157287731937942</v>
       </c>
       <c r="E16">
-        <v>0.1904560047181363</v>
+        <v>0.06106409777054012</v>
       </c>
       <c r="F16">
-        <v>3.161681989588118</v>
+        <v>0.3920739784055769</v>
       </c>
       <c r="G16">
-        <v>0.0007229873225518724</v>
+        <v>0.2539838641352787</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1644728398197515</v>
       </c>
       <c r="I16">
-        <v>2.039727714578405</v>
+        <v>0.02523396121242172</v>
       </c>
       <c r="J16">
-        <v>0.3445781685995826</v>
+        <v>0.2108198818555778</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2923518123487838</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.48585216901904</v>
       </c>
       <c r="N16">
-        <v>11.23323027560713</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>9.020224264662204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4156938686054659</v>
+      </c>
+      <c r="P16">
+        <v>1.183217968570602</v>
+      </c>
+      <c r="Q16">
+        <v>0.9303462046619302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.007659395137103786</v>
+        <v>0.1036240542184146</v>
       </c>
       <c r="D17">
-        <v>0.09401356474399591</v>
+        <v>0.1087628669979921</v>
       </c>
       <c r="E17">
-        <v>0.183086894370156</v>
+        <v>0.05234447087685057</v>
       </c>
       <c r="F17">
-        <v>3.027232415914284</v>
+        <v>0.3946364072739996</v>
       </c>
       <c r="G17">
-        <v>0.0007261491547093657</v>
+        <v>0.2599899102848582</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1262827712049841</v>
       </c>
       <c r="I17">
-        <v>1.95101849134825</v>
+        <v>0.02381654462909921</v>
       </c>
       <c r="J17">
-        <v>0.329970594688703</v>
+        <v>0.2160326651738984</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2956550795463002</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.336796105275198</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.629737025193435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4649303258995516</v>
+      </c>
+      <c r="P17">
+        <v>1.134866105072206</v>
+      </c>
+      <c r="Q17">
+        <v>0.9538844707733176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.007505558512857391</v>
+        <v>0.09900960424272398</v>
       </c>
       <c r="D18">
-        <v>0.09264679546883059</v>
+        <v>0.101323732259857</v>
       </c>
       <c r="E18">
-        <v>0.1788925745264578</v>
+        <v>0.06568397531410231</v>
       </c>
       <c r="F18">
-        <v>2.950630524986764</v>
+        <v>0.4149334106776905</v>
       </c>
       <c r="G18">
-        <v>0.0007279755239393282</v>
+        <v>0.2813604274392389</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07358265871341985</v>
       </c>
       <c r="I18">
-        <v>1.900462041602523</v>
+        <v>0.02303813102184371</v>
       </c>
       <c r="J18">
-        <v>0.3216526510859552</v>
+        <v>0.2282998766145283</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3121051833998933</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.24171784672194</v>
       </c>
       <c r="N18">
-        <v>10.5514994903329</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>8.407232346872604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5941845910645682</v>
+      </c>
+      <c r="P18">
+        <v>1.067929232189883</v>
+      </c>
+      <c r="Q18">
+        <v>1.024814936734145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.007453531975937011</v>
+        <v>0.09386306324731208</v>
       </c>
       <c r="D19">
-        <v>0.09218695229299101</v>
+        <v>0.09459098827758794</v>
       </c>
       <c r="E19">
-        <v>0.1774797461879984</v>
+        <v>0.1390001651050348</v>
       </c>
       <c r="F19">
-        <v>2.924814593606357</v>
+        <v>0.4465242100467748</v>
       </c>
       <c r="G19">
-        <v>0.0007285953006302736</v>
+        <v>0.3125496886610648</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02915030185669565</v>
       </c>
       <c r="I19">
-        <v>1.883421261104104</v>
+        <v>0.02326510742305032</v>
       </c>
       <c r="J19">
-        <v>0.3188501572638671</v>
+        <v>0.2447051449303217</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3357200619945644</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.19269139644382</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>8.332240387438844</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7972353079659698</v>
+      </c>
+      <c r="P19">
+        <v>0.9972003426150309</v>
+      </c>
+      <c r="Q19">
+        <v>1.125272300071885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.007687896416697981</v>
+        <v>0.09171552416599127</v>
       </c>
       <c r="D20">
-        <v>0.09426793251593324</v>
+        <v>0.08925731925996416</v>
       </c>
       <c r="E20">
-        <v>0.1838667035995769</v>
+        <v>0.3713119403810339</v>
       </c>
       <c r="F20">
-        <v>3.041468000912033</v>
+        <v>0.5123654425099602</v>
       </c>
       <c r="G20">
-        <v>0.0007258117842222439</v>
+        <v>0.3736141002147804</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.006007896475641594</v>
       </c>
       <c r="I20">
-        <v>1.960412614998162</v>
+        <v>0.0256206241157706</v>
       </c>
       <c r="J20">
-        <v>0.3315167636373388</v>
+        <v>0.2738267631522291</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3834587065465556</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.282285441890451</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>8.671084754069739</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.201462691681343</v>
+      </c>
+      <c r="P20">
+        <v>0.9109089243568462</v>
+      </c>
+      <c r="Q20">
+        <v>1.315821405742724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.00848020152779938</v>
+        <v>0.1023452912649674</v>
       </c>
       <c r="D21">
-        <v>0.1014766641972287</v>
+        <v>0.09884172758890486</v>
       </c>
       <c r="E21">
-        <v>0.2058770422011307</v>
+        <v>0.4354498953967223</v>
       </c>
       <c r="F21">
-        <v>3.442535717124315</v>
+        <v>0.563687843327692</v>
       </c>
       <c r="G21">
-        <v>0.0007165472446861919</v>
+        <v>0.4117159252585623</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.008723310882489399</v>
       </c>
       <c r="I21">
-        <v>2.22493488996804</v>
+        <v>0.03086940365812474</v>
       </c>
       <c r="J21">
-        <v>0.3751245439718787</v>
+        <v>0.2872166203213879</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4170277161445881</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.681361988005904</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>9.835752655355009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.38431849094674</v>
+      </c>
+      <c r="P21">
+        <v>0.9214317799594767</v>
+      </c>
+      <c r="Q21">
+        <v>1.424944427497991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.009002544228479792</v>
+        <v>0.1109298635490035</v>
       </c>
       <c r="D22">
-        <v>0.1063669678873751</v>
+        <v>0.105303906303412</v>
       </c>
       <c r="E22">
-        <v>0.220727880946491</v>
+        <v>0.4632488954371468</v>
       </c>
       <c r="F22">
-        <v>3.712437093440258</v>
+        <v>0.5966329720240182</v>
       </c>
       <c r="G22">
-        <v>0.0007105454638212809</v>
+        <v>0.4359200193090373</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0106316043636753</v>
       </c>
       <c r="I22">
-        <v>2.40280628890099</v>
+        <v>0.03424708023417011</v>
       </c>
       <c r="J22">
-        <v>0.4045193642389506</v>
+        <v>0.2956649946619052</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4392223699505138</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.946216740862042</v>
       </c>
       <c r="N22">
-        <v>12.95085643057962</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>10.61930708427468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.485409318009545</v>
+      </c>
+      <c r="P22">
+        <v>0.9319272221173946</v>
+      </c>
+      <c r="Q22">
+        <v>1.494142763506119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.00872328488687657</v>
+        <v>0.1077839214194256</v>
       </c>
       <c r="D23">
-        <v>0.1037393631589794</v>
+        <v>0.1016523530047593</v>
       </c>
       <c r="E23">
-        <v>0.2127553155277795</v>
+        <v>0.4482716563376741</v>
       </c>
       <c r="F23">
-        <v>3.56760682207468</v>
+        <v>0.5803202856749792</v>
       </c>
       <c r="G23">
-        <v>0.0007137447011684728</v>
+        <v>0.4242773356547787</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.009600369798647236</v>
       </c>
       <c r="I23">
-        <v>2.307372705115142</v>
+        <v>0.03222619201633492</v>
       </c>
       <c r="J23">
-        <v>0.388741247626939</v>
+        <v>0.2917906932901531</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4291883786902133</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.807751766813396</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>10.19886652046335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.4319259131412</v>
+      </c>
+      <c r="P23">
+        <v>0.9250892805191882</v>
+      </c>
+      <c r="Q23">
+        <v>1.461244487575925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.007675010044479791</v>
+        <v>0.093343340728822</v>
       </c>
       <c r="D24">
-        <v>0.09415288037077829</v>
+        <v>0.08817817692518304</v>
       </c>
       <c r="E24">
-        <v>0.1835140209194961</v>
+        <v>0.3919636433890474</v>
       </c>
       <c r="F24">
-        <v>3.035029941842026</v>
+        <v>0.5175998531435155</v>
       </c>
       <c r="G24">
-        <v>0.0007259642824724134</v>
+        <v>0.3790324589904372</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.006096518429955344</v>
       </c>
       <c r="I24">
-        <v>1.956164158613333</v>
+        <v>0.02528009826330013</v>
       </c>
       <c r="J24">
-        <v>0.3308174925770544</v>
+        <v>0.2766375600665612</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3887469429767094</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3.277979800716253</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>8.652385281880981</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.228833714064677</v>
+      </c>
+      <c r="P24">
+        <v>0.9025011137147914</v>
+      </c>
+      <c r="Q24">
+        <v>1.333191534812386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.006558157153609301</v>
+        <v>0.07742354492672376</v>
       </c>
       <c r="D25">
-        <v>0.08447321656926476</v>
+        <v>0.07367619012729421</v>
       </c>
       <c r="E25">
-        <v>0.1536306657294055</v>
+        <v>0.3315264754068181</v>
       </c>
       <c r="F25">
-        <v>2.487908474482708</v>
+        <v>0.452307933482615</v>
       </c>
       <c r="G25">
-        <v>0.0007394491342396129</v>
+        <v>0.3321606211356283</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.003099885552403592</v>
       </c>
       <c r="I25">
-        <v>1.594809637393851</v>
+        <v>0.01855195346939009</v>
       </c>
       <c r="J25">
-        <v>0.2714827760864438</v>
+        <v>0.2614788447803704</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3462336573467155</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.704920647699566</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>7.062657127029809</v>
+        <v>1.010109996987104</v>
+      </c>
+      <c r="P25">
+        <v>0.880827092911403</v>
+      </c>
+      <c r="Q25">
+        <v>1.201618865077137</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06882837269067466</v>
+        <v>0.04010192312432537</v>
       </c>
       <c r="D2">
-        <v>0.06253029908317131</v>
+        <v>0.0674679037085042</v>
       </c>
       <c r="E2">
-        <v>0.2868475322924056</v>
+        <v>0.2879813519296093</v>
       </c>
       <c r="F2">
-        <v>0.4091443360971709</v>
+        <v>0.3824020163363215</v>
       </c>
       <c r="G2">
-        <v>0.3022210689452152</v>
+        <v>0.25822638600674</v>
       </c>
       <c r="H2">
-        <v>0.001476986196929486</v>
+        <v>0.00131474120597197</v>
       </c>
       <c r="I2">
-        <v>0.01369023602086816</v>
+        <v>0.01236884240121494</v>
       </c>
       <c r="J2">
-        <v>0.2528257197244059</v>
+        <v>0.2821647003008465</v>
       </c>
       <c r="K2">
-        <v>0.32014732229608</v>
+        <v>0.2824977663614838</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1684033140146362</v>
       </c>
       <c r="M2">
-        <v>2.288017273549059</v>
+        <v>0.06598908327160302</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8502445296874441</v>
+        <v>2.219944602944878</v>
       </c>
       <c r="P2">
-        <v>0.8643103304797179</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.119665387460131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8391447759109454</v>
+      </c>
+      <c r="R2">
+        <v>0.894092910619932</v>
+      </c>
+      <c r="S2">
+        <v>1.038807019985711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06082159060497361</v>
+        <v>0.03656424887228127</v>
       </c>
       <c r="D3">
-        <v>0.05524981171456744</v>
+        <v>0.05924426373258029</v>
       </c>
       <c r="E3">
-        <v>0.2567622821221747</v>
+        <v>0.2577709262610028</v>
       </c>
       <c r="F3">
-        <v>0.3789711582574</v>
+        <v>0.3570657261496279</v>
       </c>
       <c r="G3">
-        <v>0.2808304278531608</v>
+        <v>0.2415069568775721</v>
       </c>
       <c r="H3">
-        <v>0.000683532499539341</v>
+        <v>0.0005955194517841544</v>
       </c>
       <c r="I3">
-        <v>0.01090106043110017</v>
+        <v>0.01006771407066864</v>
       </c>
       <c r="J3">
-        <v>0.2465406220574735</v>
+        <v>0.276504874574627</v>
       </c>
       <c r="K3">
-        <v>0.3003242570785645</v>
+        <v>0.2688269637315273</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1699927082785528</v>
       </c>
       <c r="M3">
-        <v>2.000302051946136</v>
+        <v>0.05495343141873121</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7411502189458119</v>
+        <v>1.945234489550501</v>
       </c>
       <c r="P3">
-        <v>0.8558988209966003</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.0608949355303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.732187897587778</v>
+      </c>
+      <c r="R3">
+        <v>0.8796899163577763</v>
+      </c>
+      <c r="S3">
+        <v>0.9943827759503563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05575278652401749</v>
+        <v>0.03425454982581755</v>
       </c>
       <c r="D4">
-        <v>0.0507831188473844</v>
+        <v>0.05420951903866467</v>
       </c>
       <c r="E4">
-        <v>0.2382835902346585</v>
+        <v>0.2392254927236266</v>
       </c>
       <c r="F4">
-        <v>0.3608008080606311</v>
+        <v>0.3417663155450228</v>
       </c>
       <c r="G4">
-        <v>0.2679672192237206</v>
+        <v>0.2314888486303417</v>
       </c>
       <c r="H4">
-        <v>0.0003357224796534108</v>
+        <v>0.000284024931895388</v>
       </c>
       <c r="I4">
-        <v>0.009312356621797413</v>
+        <v>0.008752194859097173</v>
       </c>
       <c r="J4">
-        <v>0.2428857905464241</v>
+        <v>0.2730874460055261</v>
       </c>
       <c r="K4">
-        <v>0.288258116956964</v>
+        <v>0.2604283191183328</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.170914775973003</v>
       </c>
       <c r="M4">
-        <v>1.82287945846042</v>
+        <v>0.0487288386967677</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6740679893736257</v>
+        <v>1.775631740767295</v>
       </c>
       <c r="P4">
-        <v>0.8513446635410844</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.025803733515474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6663787509963015</v>
+      </c>
+      <c r="R4">
+        <v>0.871516398824447</v>
+      </c>
+      <c r="S4">
+        <v>0.9677920645806495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05329694443726396</v>
+        <v>0.033015871988745</v>
       </c>
       <c r="D5">
-        <v>0.0490119126828148</v>
+        <v>0.05221072652122416</v>
       </c>
       <c r="E5">
-        <v>0.2307797690532922</v>
+        <v>0.2316978704719475</v>
       </c>
       <c r="F5">
-        <v>0.3531501125194794</v>
+        <v>0.335277329353147</v>
       </c>
       <c r="G5">
-        <v>0.2624594000025695</v>
+        <v>0.2271582742829708</v>
       </c>
       <c r="H5">
-        <v>0.0002266195799234261</v>
+        <v>0.0001876172043977498</v>
       </c>
       <c r="I5">
-        <v>0.008738506150586911</v>
+        <v>0.008297122203735796</v>
       </c>
       <c r="J5">
-        <v>0.2412782165715441</v>
+        <v>0.2715429241880116</v>
       </c>
       <c r="K5">
-        <v>0.2829071349659031</v>
+        <v>0.2565843525310747</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1710757515006449</v>
       </c>
       <c r="M5">
-        <v>1.749691985174167</v>
+        <v>0.04621175821321444</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6465868982680902</v>
+        <v>1.705610600427889</v>
       </c>
       <c r="P5">
-        <v>0.8498978911723185</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.010690235953192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6394095142536003</v>
+      </c>
+      <c r="R5">
+        <v>0.8686190357636434</v>
+      </c>
+      <c r="S5">
+        <v>0.9561301027865454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05245741810447413</v>
+        <v>0.03248902899816386</v>
       </c>
       <c r="D6">
-        <v>0.04877734128842093</v>
+        <v>0.05193995935056961</v>
       </c>
       <c r="E6">
-        <v>0.2295710332203882</v>
+        <v>0.2304862144225766</v>
       </c>
       <c r="F6">
-        <v>0.3514809652864201</v>
+        <v>0.3338188620505065</v>
       </c>
       <c r="G6">
-        <v>0.261145989205275</v>
+        <v>0.2260691441595242</v>
       </c>
       <c r="H6">
-        <v>0.0002100638002473509</v>
+        <v>0.0001731016935790919</v>
       </c>
       <c r="I6">
-        <v>0.008707095134382392</v>
+        <v>0.00830318794089191</v>
       </c>
       <c r="J6">
-        <v>0.2408094344470229</v>
+        <v>0.2710847902084694</v>
       </c>
       <c r="K6">
-        <v>0.28146013693123</v>
+        <v>0.2554342769255911</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1708566090939811</v>
       </c>
       <c r="M6">
-        <v>1.736680968970035</v>
+        <v>0.04565690007813927</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6418800704960788</v>
+        <v>1.693146793076863</v>
       </c>
       <c r="P6">
-        <v>0.8499859754560362</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.006911962530893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6347899665456751</v>
+      </c>
+      <c r="R6">
+        <v>0.8684784467372708</v>
+      </c>
+      <c r="S6">
+        <v>0.9529966446465608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05453973508655707</v>
+        <v>0.03344808040895941</v>
       </c>
       <c r="D7">
-        <v>0.0509222975711765</v>
+        <v>0.05445162470526554</v>
       </c>
       <c r="E7">
-        <v>0.2382856651403387</v>
+        <v>0.2392934715573887</v>
       </c>
       <c r="F7">
-        <v>0.3595931013897982</v>
+        <v>0.3399921960052978</v>
       </c>
       <c r="G7">
-        <v>0.2667914795937278</v>
+        <v>0.2330000576189235</v>
       </c>
       <c r="H7">
-        <v>0.0003328159654423235</v>
+        <v>0.0002807943988640815</v>
       </c>
       <c r="I7">
-        <v>0.00945998028671724</v>
+        <v>0.008941212527528997</v>
       </c>
       <c r="J7">
-        <v>0.2423045044750225</v>
+        <v>0.2687792170392029</v>
       </c>
       <c r="K7">
-        <v>0.2866536872519205</v>
+        <v>0.2585423724377414</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1700588048672422</v>
       </c>
       <c r="M7">
-        <v>1.819572853903452</v>
+        <v>0.04815362826960445</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.673308826355516</v>
+        <v>1.771064019827293</v>
       </c>
       <c r="P7">
-        <v>0.8522062169956683</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.022092066803495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.665402937573127</v>
+      </c>
+      <c r="R7">
+        <v>0.8729487500398534</v>
+      </c>
+      <c r="S7">
+        <v>0.9623495252112519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06451973944120937</v>
+        <v>0.03804104368728645</v>
       </c>
       <c r="D8">
-        <v>0.06023707987414184</v>
+        <v>0.06519708478258934</v>
       </c>
       <c r="E8">
-        <v>0.2766128497959031</v>
+        <v>0.2779235745175583</v>
       </c>
       <c r="F8">
-        <v>0.3971955424528417</v>
+        <v>0.3701062305985516</v>
       </c>
       <c r="G8">
-        <v>0.2933227580960533</v>
+        <v>0.2597456750727005</v>
       </c>
       <c r="H8">
-        <v>0.001170105269312716</v>
+        <v>0.001031784047786921</v>
       </c>
       <c r="I8">
-        <v>0.01288201041413028</v>
+        <v>0.01176884766908515</v>
       </c>
       <c r="J8">
-        <v>0.2498744120582259</v>
+        <v>0.2672981902133387</v>
       </c>
       <c r="K8">
-        <v>0.311252021201188</v>
+        <v>0.2744984075074512</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1675392548657548</v>
       </c>
       <c r="M8">
-        <v>2.185864334850436</v>
+        <v>0.06098713007481038</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8121257330108875</v>
+        <v>2.117813421644684</v>
       </c>
       <c r="P8">
-        <v>0.8624860332782518</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.09453137599921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.8010050020939516</v>
+      </c>
+      <c r="R8">
+        <v>0.8921633515819707</v>
+      </c>
+      <c r="S8">
+        <v>1.01239683903971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0849915743380194</v>
+        <v>0.04719194864805587</v>
       </c>
       <c r="D9">
-        <v>0.07825782432330186</v>
+        <v>0.0857331270780719</v>
       </c>
       <c r="E9">
-        <v>0.3516632061264175</v>
+        <v>0.3534037652473501</v>
       </c>
       <c r="F9">
-        <v>0.4760179048338102</v>
+        <v>0.43560734318595</v>
       </c>
       <c r="G9">
-        <v>0.3497126362270961</v>
+        <v>0.3067082460665631</v>
       </c>
       <c r="H9">
-        <v>0.004020770489251868</v>
+        <v>0.003632518758668879</v>
       </c>
       <c r="I9">
-        <v>0.02046547973917789</v>
+        <v>0.01789621653386497</v>
       </c>
       <c r="J9">
-        <v>0.2674421049579792</v>
+        <v>0.2790514034539342</v>
       </c>
       <c r="K9">
-        <v>0.363197848713888</v>
+        <v>0.3098952131446353</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1639811537098055</v>
       </c>
       <c r="M9">
-        <v>2.902487418263689</v>
+        <v>0.09187141965667323</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.08448527177044</v>
+        <v>2.79955240565647</v>
       </c>
       <c r="P9">
-        <v>0.8860751437782852</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.251476446677941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.06754109134166</v>
+      </c>
+      <c r="R9">
+        <v>0.9316371945805457</v>
+      </c>
+      <c r="S9">
+        <v>1.129625573531968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09910749068602343</v>
+        <v>0.05382095509092011</v>
       </c>
       <c r="D10">
-        <v>0.09242273558997738</v>
+        <v>0.1024355624164812</v>
       </c>
       <c r="E10">
-        <v>0.379492451010627</v>
+        <v>0.3817292686594271</v>
       </c>
       <c r="F10">
-        <v>0.5305430292794284</v>
+        <v>0.4766400422534929</v>
       </c>
       <c r="G10">
-        <v>0.3872861898894371</v>
+        <v>0.3535728952241186</v>
       </c>
       <c r="H10">
-        <v>0.006854315221391794</v>
+        <v>0.006222665616296474</v>
       </c>
       <c r="I10">
-        <v>0.02684731672164631</v>
+        <v>0.02301738572044609</v>
       </c>
       <c r="J10">
-        <v>0.2787201397480743</v>
+        <v>0.2655402883532574</v>
       </c>
       <c r="K10">
-        <v>0.3974961925737972</v>
+        <v>0.3297766794337491</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1589108755091395</v>
       </c>
       <c r="M10">
-        <v>3.427245965677855</v>
+        <v>0.1147600554139068</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.246875318667037</v>
+        <v>3.290028069078232</v>
       </c>
       <c r="P10">
-        <v>0.915536881008677</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.355160218641913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.22446889763944</v>
+      </c>
+      <c r="R10">
+        <v>0.9770924602997439</v>
+      </c>
+      <c r="S10">
+        <v>1.193036897038837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1077124856068252</v>
+        <v>0.06092951228148991</v>
       </c>
       <c r="D11">
-        <v>0.1062360892908458</v>
+        <v>0.118608235838451</v>
       </c>
       <c r="E11">
-        <v>0.1972937945442226</v>
+        <v>0.1977735486707211</v>
       </c>
       <c r="F11">
-        <v>0.5099152069971638</v>
+        <v>0.4487920128172149</v>
       </c>
       <c r="G11">
-        <v>0.3594964034680288</v>
+        <v>0.3611157862954713</v>
       </c>
       <c r="H11">
-        <v>0.02442657968766326</v>
+        <v>0.02378996054226334</v>
       </c>
       <c r="I11">
-        <v>0.02940893090073615</v>
+        <v>0.02513438392764922</v>
       </c>
       <c r="J11">
-        <v>0.2613394135492371</v>
+        <v>0.2136359425389287</v>
       </c>
       <c r="K11">
-        <v>0.3777006806815209</v>
+        <v>0.3063855794002066</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1454441195613327</v>
       </c>
       <c r="M11">
-        <v>3.685758529729867</v>
+        <v>0.1121162492567969</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.012112093209765</v>
+        <v>3.52317190262238</v>
       </c>
       <c r="P11">
-        <v>1.00874758906825</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.260017372375728</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9892881650288388</v>
+      </c>
+      <c r="R11">
+        <v>1.088202836998192</v>
+      </c>
+      <c r="S11">
+        <v>1.079919454665628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1143622622369094</v>
+        <v>0.06716051623747887</v>
       </c>
       <c r="D12">
-        <v>0.1150237148544448</v>
+        <v>0.1284842293153474</v>
       </c>
       <c r="E12">
-        <v>0.09758040885932573</v>
+        <v>0.09592461207092384</v>
       </c>
       <c r="F12">
-        <v>0.4826678355955636</v>
+        <v>0.4207523074103747</v>
       </c>
       <c r="G12">
-        <v>0.3303928466027486</v>
+        <v>0.3487880963978256</v>
       </c>
       <c r="H12">
-        <v>0.06222258440038075</v>
+        <v>0.06162388833057975</v>
       </c>
       <c r="I12">
-        <v>0.02999200074464525</v>
+        <v>0.0255496478894397</v>
       </c>
       <c r="J12">
-        <v>0.2452357292232108</v>
+        <v>0.1884430885391239</v>
       </c>
       <c r="K12">
-        <v>0.3562908284841484</v>
+        <v>0.2864422061915448</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1367609796883649</v>
       </c>
       <c r="M12">
-        <v>3.798408518132874</v>
+        <v>0.1063582802782115</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8035289195040534</v>
+        <v>3.626573268525249</v>
       </c>
       <c r="P12">
-        <v>1.086925737912495</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.16466017876138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7825943556563573</v>
+      </c>
+      <c r="R12">
+        <v>1.176221946130525</v>
+      </c>
+      <c r="S12">
+        <v>0.9856502434048906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1179612821575944</v>
+        <v>0.0715354411823057</v>
       </c>
       <c r="D13">
-        <v>0.1206181804499096</v>
+        <v>0.1338407092535192</v>
       </c>
       <c r="E13">
-        <v>0.05474994406590761</v>
+        <v>0.05090315382738941</v>
       </c>
       <c r="F13">
-        <v>0.4469167022761908</v>
+        <v>0.3904580863803702</v>
       </c>
       <c r="G13">
-        <v>0.2968099791816599</v>
+        <v>0.3123970734737753</v>
       </c>
       <c r="H13">
-        <v>0.1170784791738129</v>
+        <v>0.1165531884822713</v>
       </c>
       <c r="I13">
-        <v>0.02928193199652984</v>
+        <v>0.02499202916402865</v>
       </c>
       <c r="J13">
-        <v>0.2282486711686431</v>
+        <v>0.181585758991119</v>
       </c>
       <c r="K13">
-        <v>0.3299573875646615</v>
+        <v>0.2666021452537528</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1303912960032108</v>
       </c>
       <c r="M13">
-        <v>3.800663666742821</v>
+        <v>0.0975125445848839</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.603527309423157</v>
+        <v>3.635874003330571</v>
       </c>
       <c r="P13">
-        <v>1.157961170532872</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.057880264505343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5863810035126065</v>
+      </c>
+      <c r="R13">
+        <v>1.24830374937595</v>
+      </c>
+      <c r="S13">
+        <v>0.8981914574210919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1187103903001514</v>
+        <v>0.07349099333578835</v>
       </c>
       <c r="D14">
-        <v>0.1231450227240884</v>
+        <v>0.1355777218752507</v>
       </c>
       <c r="E14">
-        <v>0.05808923475698435</v>
+        <v>0.05292681894430551</v>
       </c>
       <c r="F14">
-        <v>0.4179645509944336</v>
+        <v>0.3678647357540186</v>
       </c>
       <c r="G14">
-        <v>0.2712746168141891</v>
+        <v>0.2774355888027031</v>
       </c>
       <c r="H14">
-        <v>0.1658303642745977</v>
+        <v>0.1653662350840506</v>
       </c>
       <c r="I14">
-        <v>0.02827628935891191</v>
+        <v>0.02424848060327367</v>
       </c>
       <c r="J14">
-        <v>0.2159218338622892</v>
+        <v>0.1834037537751882</v>
       </c>
       <c r="K14">
-        <v>0.3090551742129506</v>
+        <v>0.2523183951512387</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1267068020264439</v>
       </c>
       <c r="M14">
-        <v>3.751447948582609</v>
+        <v>0.08987039778742911</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4716674296869101</v>
+        <v>3.598889216545729</v>
       </c>
       <c r="P14">
-        <v>1.204960660999674</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9778884805538439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4577179813259491</v>
+      </c>
+      <c r="R14">
+        <v>1.291640444636073</v>
+      </c>
+      <c r="S14">
+        <v>0.8388242719829009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1176339439660694</v>
+        <v>0.07309580126283066</v>
       </c>
       <c r="D15">
-        <v>0.1230942574151612</v>
+        <v>0.1350664200535903</v>
       </c>
       <c r="E15">
-        <v>0.06312600324619666</v>
+        <v>0.05774969841378486</v>
       </c>
       <c r="F15">
-        <v>0.4087641651733662</v>
+        <v>0.3613400746183402</v>
       </c>
       <c r="G15">
-        <v>0.2637102206353106</v>
+        <v>0.2645917764786034</v>
       </c>
       <c r="H15">
-        <v>0.1781245974268444</v>
+        <v>0.1776849559037856</v>
       </c>
       <c r="I15">
-        <v>0.02782771264207273</v>
+        <v>0.02395603692430903</v>
       </c>
       <c r="J15">
-        <v>0.2125555119363156</v>
+        <v>0.1866737170513488</v>
       </c>
       <c r="K15">
-        <v>0.302407708798512</v>
+        <v>0.2482528130355526</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1260285228535452</v>
       </c>
       <c r="M15">
-        <v>3.71465785825967</v>
+        <v>0.08716631152527299</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4386377186430366</v>
+        <v>3.568291659155932</v>
       </c>
       <c r="P15">
-        <v>1.214216668142484</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9547741128928635</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4257190618456548</v>
+      </c>
+      <c r="R15">
+        <v>1.298116670808056</v>
+      </c>
+      <c r="S15">
+        <v>0.8239127738988259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1099519145775645</v>
+        <v>0.06796789252652502</v>
       </c>
       <c r="D16">
-        <v>0.1157287731937942</v>
+        <v>0.1254317176497892</v>
       </c>
       <c r="E16">
-        <v>0.06106409777054012</v>
+        <v>0.05642258399592492</v>
       </c>
       <c r="F16">
-        <v>0.3920739784055769</v>
+        <v>0.3542082064456835</v>
       </c>
       <c r="G16">
-        <v>0.2539838641352787</v>
+        <v>0.2305827036659878</v>
       </c>
       <c r="H16">
-        <v>0.1644728398197515</v>
+        <v>0.1641341707074417</v>
       </c>
       <c r="I16">
-        <v>0.02523396121242172</v>
+        <v>0.02201587337339728</v>
       </c>
       <c r="J16">
-        <v>0.2108198818555778</v>
+        <v>0.2138151674727951</v>
       </c>
       <c r="K16">
-        <v>0.2923518123487838</v>
+        <v>0.2462212328874571</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1294804026969167</v>
       </c>
       <c r="M16">
-        <v>3.48585216901904</v>
+        <v>0.08057312671746786</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4156938686054659</v>
+        <v>3.366654645599056</v>
       </c>
       <c r="P16">
-        <v>1.183217968570602</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9303462046619302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4051859577074737</v>
+      </c>
+      <c r="R16">
+        <v>1.251347169246642</v>
+      </c>
+      <c r="S16">
+        <v>0.8264493338047032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1036240542184146</v>
+        <v>0.06311892527143925</v>
       </c>
       <c r="D17">
-        <v>0.1087628669979921</v>
+        <v>0.1174083811266087</v>
       </c>
       <c r="E17">
-        <v>0.05234447087685057</v>
+        <v>0.04866395292843473</v>
       </c>
       <c r="F17">
-        <v>0.3946364072739996</v>
+        <v>0.3600379208031299</v>
       </c>
       <c r="G17">
-        <v>0.2599899102848582</v>
+        <v>0.2258771272134652</v>
       </c>
       <c r="H17">
-        <v>0.1262827712049841</v>
+        <v>0.1259864690699288</v>
       </c>
       <c r="I17">
-        <v>0.02381654462909921</v>
+        <v>0.02094291442061103</v>
       </c>
       <c r="J17">
-        <v>0.2160326651738984</v>
+        <v>0.2320216281698748</v>
       </c>
       <c r="K17">
-        <v>0.2956550795463002</v>
+        <v>0.2517599913802506</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1341079547924835</v>
       </c>
       <c r="M17">
-        <v>3.336796105275198</v>
+        <v>0.0792781894987975</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4649303258995516</v>
+        <v>3.229312128307072</v>
       </c>
       <c r="P17">
-        <v>1.134866105072206</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9538844707733176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4546492145367722</v>
+      </c>
+      <c r="R17">
+        <v>1.194928301901854</v>
+      </c>
+      <c r="S17">
+        <v>0.8581289567521537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09900960424272398</v>
+        <v>0.05877034857018515</v>
       </c>
       <c r="D18">
-        <v>0.101323732259857</v>
+        <v>0.1095168199200032</v>
       </c>
       <c r="E18">
-        <v>0.06568397531410231</v>
+        <v>0.06328702854293766</v>
       </c>
       <c r="F18">
-        <v>0.4149334106776905</v>
+        <v>0.3798708705342406</v>
       </c>
       <c r="G18">
-        <v>0.2813604274392389</v>
+        <v>0.2405969478471377</v>
       </c>
       <c r="H18">
-        <v>0.07358265871341985</v>
+        <v>0.073282787806356</v>
       </c>
       <c r="I18">
-        <v>0.02303813102184371</v>
+        <v>0.02025155064705686</v>
       </c>
       <c r="J18">
-        <v>0.2282998766145283</v>
+        <v>0.2490849216569941</v>
       </c>
       <c r="K18">
-        <v>0.3121051833998933</v>
+        <v>0.2664866295991182</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1410752314724846</v>
       </c>
       <c r="M18">
-        <v>3.24171784672194</v>
+        <v>0.08303067506093953</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5941845910645682</v>
+        <v>3.137513991694448</v>
       </c>
       <c r="P18">
-        <v>1.067929232189883</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.024814936734145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5826143981587961</v>
+      </c>
+      <c r="R18">
+        <v>1.123456023210508</v>
+      </c>
+      <c r="S18">
+        <v>0.9256296741650232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09386306324731208</v>
+        <v>0.05360374888601882</v>
       </c>
       <c r="D19">
-        <v>0.09459098827758794</v>
+        <v>0.1027129918620417</v>
       </c>
       <c r="E19">
-        <v>0.1390001651050348</v>
+        <v>0.1381676401410168</v>
       </c>
       <c r="F19">
-        <v>0.4465242100467748</v>
+        <v>0.408608632726235</v>
       </c>
       <c r="G19">
-        <v>0.3125496886610648</v>
+        <v>0.2668172778387614</v>
       </c>
       <c r="H19">
-        <v>0.02915030185669565</v>
+        <v>0.02879879374286531</v>
       </c>
       <c r="I19">
-        <v>0.02326510742305032</v>
+        <v>0.02047641464035532</v>
       </c>
       <c r="J19">
-        <v>0.2447051449303217</v>
+        <v>0.2654826073050458</v>
       </c>
       <c r="K19">
-        <v>0.3357200619945644</v>
+        <v>0.285875281073217</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.148781771034102</v>
       </c>
       <c r="M19">
-        <v>3.19269139644382</v>
+        <v>0.08990785351552333</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7972353079659698</v>
+        <v>3.086408124627894</v>
       </c>
       <c r="P19">
-        <v>0.9972003426150309</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.125272300071885</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7832400592627238</v>
+      </c>
+      <c r="R19">
+        <v>1.050304781234161</v>
+      </c>
+      <c r="S19">
+        <v>1.015241522759339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09171552416599127</v>
+        <v>0.04937416132564465</v>
       </c>
       <c r="D20">
-        <v>0.08925731925996416</v>
+        <v>0.09823050613113793</v>
       </c>
       <c r="E20">
-        <v>0.3713119403810339</v>
+        <v>0.3731753616417848</v>
       </c>
       <c r="F20">
-        <v>0.5123654425099602</v>
+        <v>0.4645989749876236</v>
       </c>
       <c r="G20">
-        <v>0.3736141002147804</v>
+        <v>0.328026814676079</v>
       </c>
       <c r="H20">
-        <v>0.006007896475641594</v>
+        <v>0.005456221916078086</v>
       </c>
       <c r="I20">
-        <v>0.0256206241157706</v>
+        <v>0.02234974088101005</v>
       </c>
       <c r="J20">
-        <v>0.2738267631522291</v>
+        <v>0.2796979110359246</v>
       </c>
       <c r="K20">
-        <v>0.3834587065465556</v>
+        <v>0.3217232179384339</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1592003994569318</v>
       </c>
       <c r="M20">
-        <v>3.282285441890451</v>
+        <v>0.1074690669606326</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.201462691681343</v>
+        <v>3.159541845339163</v>
       </c>
       <c r="P20">
-        <v>0.9109089243568462</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.315821405742724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.181412642047704</v>
+      </c>
+      <c r="R20">
+        <v>0.9661224944634341</v>
+      </c>
+      <c r="S20">
+        <v>1.172519920039747</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1023452912649674</v>
+        <v>0.05543643745590998</v>
       </c>
       <c r="D21">
-        <v>0.09884172758890486</v>
+        <v>0.1118664743759865</v>
       </c>
       <c r="E21">
-        <v>0.4354498953967223</v>
+        <v>0.4394929688058795</v>
       </c>
       <c r="F21">
-        <v>0.563687843327692</v>
+        <v>0.4922898009107186</v>
       </c>
       <c r="G21">
-        <v>0.4117159252585623</v>
+        <v>0.4263768792619373</v>
       </c>
       <c r="H21">
-        <v>0.008723310882489399</v>
+        <v>0.00788168074400733</v>
       </c>
       <c r="I21">
-        <v>0.03086940365812474</v>
+        <v>0.02632095274965263</v>
       </c>
       <c r="J21">
-        <v>0.2872166203213879</v>
+        <v>0.2158685250227492</v>
       </c>
       <c r="K21">
-        <v>0.4170277161445881</v>
+        <v>0.3345679426703967</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1545947904920091</v>
       </c>
       <c r="M21">
-        <v>3.681361988005904</v>
+        <v>0.1246853696872634</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.38431849094674</v>
+        <v>3.50396008781604</v>
       </c>
       <c r="P21">
-        <v>0.9214317799594767</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.424944427497991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.354614268298789</v>
+      </c>
+      <c r="R21">
+        <v>1.000770526174534</v>
+      </c>
+      <c r="S21">
+        <v>1.209202017404778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1109298635490035</v>
+        <v>0.06073565832888761</v>
       </c>
       <c r="D22">
-        <v>0.105303906303412</v>
+        <v>0.1212098765731326</v>
       </c>
       <c r="E22">
-        <v>0.4632488954371468</v>
+        <v>0.4687783032017308</v>
       </c>
       <c r="F22">
-        <v>0.5966329720240182</v>
+        <v>0.5086829195183711</v>
       </c>
       <c r="G22">
-        <v>0.4359200193090373</v>
+        <v>0.4990056241657186</v>
       </c>
       <c r="H22">
-        <v>0.0106316043636753</v>
+        <v>0.009582668261075594</v>
       </c>
       <c r="I22">
-        <v>0.03424708023417011</v>
+        <v>0.02873632965145578</v>
       </c>
       <c r="J22">
-        <v>0.2956649946619052</v>
+        <v>0.179424106491112</v>
       </c>
       <c r="K22">
-        <v>0.4392223699505138</v>
+        <v>0.3424495221138244</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1514857289771925</v>
       </c>
       <c r="M22">
-        <v>3.946216740862042</v>
+        <v>0.1360895502295705</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.485409318009545</v>
+        <v>3.730337359434031</v>
       </c>
       <c r="P22">
-        <v>0.9319272221173946</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.494142763506119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.449063980437174</v>
+      </c>
+      <c r="R22">
+        <v>1.028673506351041</v>
+      </c>
+      <c r="S22">
+        <v>1.227840024387206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1077839214194256</v>
+        <v>0.05865393643723849</v>
       </c>
       <c r="D23">
-        <v>0.1016523530047593</v>
+        <v>0.1157056592245027</v>
       </c>
       <c r="E23">
-        <v>0.4482716563376741</v>
+        <v>0.4527944207132677</v>
       </c>
       <c r="F23">
-        <v>0.5803202856749792</v>
+        <v>0.5028159433961648</v>
       </c>
       <c r="G23">
-        <v>0.4242773356547787</v>
+        <v>0.4530450898301126</v>
       </c>
       <c r="H23">
-        <v>0.009600369798647236</v>
+        <v>0.008670105932147398</v>
       </c>
       <c r="I23">
-        <v>0.03222619201633492</v>
+        <v>0.02718464393298614</v>
       </c>
       <c r="J23">
-        <v>0.2917906932901531</v>
+        <v>0.2047312565368458</v>
       </c>
       <c r="K23">
-        <v>0.4291883786902133</v>
+        <v>0.3409553932922691</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1540581061489803</v>
       </c>
       <c r="M23">
-        <v>3.807751766813396</v>
+        <v>0.1311151598513547</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.4319259131412</v>
+        <v>3.616149170131052</v>
       </c>
       <c r="P23">
-        <v>0.9250892805191882</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.461244487575925</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.399779497204918</v>
+      </c>
+      <c r="R23">
+        <v>1.010653011687737</v>
+      </c>
+      <c r="S23">
+        <v>1.226760978991024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.093343340728822</v>
+        <v>0.05032884549932959</v>
       </c>
       <c r="D24">
-        <v>0.08817817692518304</v>
+        <v>0.09709707006382473</v>
       </c>
       <c r="E24">
-        <v>0.3919636433890474</v>
+        <v>0.3939979048746949</v>
       </c>
       <c r="F24">
-        <v>0.5175998531435155</v>
+        <v>0.469516899457588</v>
       </c>
       <c r="G24">
-        <v>0.3790324589904372</v>
+        <v>0.3324306993745409</v>
       </c>
       <c r="H24">
-        <v>0.006096518429955344</v>
+        <v>0.005534354080083292</v>
       </c>
       <c r="I24">
-        <v>0.02528009826330013</v>
+        <v>0.0219002354731197</v>
       </c>
       <c r="J24">
-        <v>0.2766375600665612</v>
+        <v>0.2828832292408521</v>
       </c>
       <c r="K24">
-        <v>0.3887469429767094</v>
+        <v>0.3263217037918267</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1610238459520978</v>
       </c>
       <c r="M24">
-        <v>3.277979800716253</v>
+        <v>0.1091162612145027</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.228833714064677</v>
+        <v>3.155242734452997</v>
       </c>
       <c r="P24">
-        <v>0.9025011137147914</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.333191534812386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.208516669353699</v>
+      </c>
+      <c r="R24">
+        <v>0.9571106497210877</v>
+      </c>
+      <c r="S24">
+        <v>1.188518888367156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07742354492672376</v>
+        <v>0.04324159575781295</v>
       </c>
       <c r="D25">
-        <v>0.07367619012729421</v>
+        <v>0.08032155822707665</v>
       </c>
       <c r="E25">
-        <v>0.3315264754068181</v>
+        <v>0.3330523615498748</v>
       </c>
       <c r="F25">
-        <v>0.452307933482615</v>
+        <v>0.4166328456298203</v>
       </c>
       <c r="G25">
-        <v>0.3321606211356283</v>
+        <v>0.2881008041813189</v>
       </c>
       <c r="H25">
-        <v>0.003099885552403592</v>
+        <v>0.00279284016416248</v>
       </c>
       <c r="I25">
-        <v>0.01855195346939009</v>
+        <v>0.01651215004099438</v>
       </c>
       <c r="J25">
-        <v>0.2614788447803704</v>
+        <v>0.2800126125928415</v>
       </c>
       <c r="K25">
-        <v>0.3462336573467155</v>
+        <v>0.2984397675379356</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1642525911377497</v>
       </c>
       <c r="M25">
-        <v>2.704920647699566</v>
+        <v>0.08235000498929068</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.010109996987104</v>
+        <v>2.613725331301652</v>
       </c>
       <c r="P25">
-        <v>0.880827092911403</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.201618865077137</v>
+        <v>0.995138694096859</v>
+      </c>
+      <c r="R25">
+        <v>0.9212663398656247</v>
+      </c>
+      <c r="S25">
+        <v>1.094142762022429</v>
       </c>
     </row>
   </sheetData>
